--- a/DataConfig/Datas/items.xlsx
+++ b/DataConfig/Datas/items.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
   <si>
     <t>##var</t>
   </si>
@@ -100,6 +100,9 @@
     <t>通用货币</t>
   </si>
   <si>
+    <t>Assets/GameRes/Picture/Food/red.png</t>
+  </si>
+  <si>
     <t>Assets/GameRes/Picture/Character/DeliveryMan.png</t>
   </si>
   <si>
@@ -109,21 +112,33 @@
     <t>食材</t>
   </si>
   <si>
+    <t>Assets/GameRes/Picture/Food/blue.png</t>
+  </si>
+  <si>
     <t>虾</t>
   </si>
   <si>
+    <t>Assets/GameRes/Picture/Food/grey.png</t>
+  </si>
+  <si>
     <t>鸡蛋</t>
   </si>
   <si>
     <t>辣椒</t>
   </si>
   <si>
+    <t>Assets/GameRes/Picture/Food/maco.png</t>
+  </si>
+  <si>
     <t>土豆</t>
   </si>
   <si>
     <t>鸡胸肉</t>
   </si>
   <si>
+    <t>Assets/GameRes/Picture/Food/white.png</t>
+  </si>
+  <si>
     <t>蒸蛋</t>
   </si>
   <si>
@@ -137,6 +152,9 @@
   </si>
   <si>
     <t>炸鸡柳</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Picture/Food/green.png</t>
   </si>
   <si>
     <t>煮牛肉</t>
@@ -1176,7 +1194,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1329,7 +1347,7 @@
         <v>28</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J4" s="17"/>
       <c r="K4" s="4"/>
@@ -1339,7 +1357,7 @@
         <v>1001</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -1348,16 +1366,16 @@
         <v>8</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="J5" s="17"/>
       <c r="K5" s="4"/>
@@ -1368,7 +1386,7 @@
         <v>1002</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>11</v>
@@ -1377,16 +1395,16 @@
         <v>10</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J6" s="17"/>
       <c r="K6" s="4"/>
@@ -1397,7 +1415,7 @@
         <v>1003</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D7">
         <v>12</v>
@@ -1406,16 +1424,16 @@
         <v>7</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J7" s="17"/>
       <c r="K7" s="4"/>
@@ -1426,7 +1444,7 @@
         <v>1004</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D8">
         <v>13</v>
@@ -1435,16 +1453,16 @@
         <v>6</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J8" s="17"/>
       <c r="K8" s="4"/>
@@ -1455,7 +1473,7 @@
         <v>1005</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D9">
         <v>14</v>
@@ -1464,16 +1482,16 @@
         <v>5</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="4"/>
@@ -1484,7 +1502,7 @@
         <v>1006</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D10">
         <v>15</v>
@@ -1493,16 +1511,16 @@
         <v>10</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J10" s="17"/>
       <c r="K10" s="4"/>
@@ -1512,22 +1530,22 @@
         <v>10001</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E11">
         <v>-1</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="2:9">
@@ -1535,22 +1553,22 @@
         <v>10002</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E12">
         <v>-1</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="2:9">
@@ -1558,22 +1576,22 @@
         <v>10003</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E13">
         <v>-1</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="2:9">
@@ -1581,22 +1599,22 @@
         <v>10004</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E14">
         <v>-1</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="2:9">
@@ -1604,22 +1622,22 @@
         <v>10005</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E15">
         <v>-1</v>
       </c>
       <c r="F15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="I15" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="3:3">

--- a/DataConfig/Datas/items.xlsx
+++ b/DataConfig/Datas/items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30075" windowHeight="13140"/>
+    <workbookView windowWidth="18525" windowHeight="17790"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
@@ -1193,8 +1193,8 @@
   <sheetPr/>
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1204,7 +1204,7 @@
     <col min="6" max="6" width="12.75" customWidth="1"/>
     <col min="7" max="7" width="27.25" customWidth="1"/>
     <col min="8" max="8" width="44.3083333333333" customWidth="1"/>
-    <col min="9" max="9" width="28.7" style="1" customWidth="1"/>
+    <col min="9" max="9" width="48.475" style="1" customWidth="1"/>
     <col min="10" max="10" width="26.875" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.375" customWidth="1"/>
   </cols>

--- a/DataConfig/Datas/items.xlsx
+++ b/DataConfig/Datas/items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18525" windowHeight="17790"/>
+    <workbookView windowWidth="24045" windowHeight="13560"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="52">
   <si>
     <t>##var</t>
   </si>
@@ -115,13 +115,22 @@
     <t>Assets/GameRes/Picture/Food/blue.png</t>
   </si>
   <si>
+    <t>Assets/GameRes/Prefabs/AllFood/FryFood/cauliflower.prefab</t>
+  </si>
+  <si>
     <t>虾</t>
   </si>
   <si>
     <t>Assets/GameRes/Picture/Food/grey.png</t>
   </si>
   <si>
+    <t>Assets/GameRes/Prefabs/AllFood/FryFood/garlic.prefab</t>
+  </si>
+  <si>
     <t>鸡蛋</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/AllFood/FryFood/onion.prefab</t>
   </si>
   <si>
     <t>辣椒</t>
@@ -1193,8 +1202,8 @@
   <sheetPr/>
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1203,8 +1212,8 @@
     <col min="5" max="5" width="9.39166666666667" customWidth="1"/>
     <col min="6" max="6" width="12.75" customWidth="1"/>
     <col min="7" max="7" width="27.25" customWidth="1"/>
-    <col min="8" max="8" width="44.3083333333333" customWidth="1"/>
-    <col min="9" max="9" width="48.475" style="1" customWidth="1"/>
+    <col min="8" max="8" width="35.15" customWidth="1"/>
+    <col min="9" max="9" width="51.4833333333333" style="1" customWidth="1"/>
     <col min="10" max="10" width="26.875" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.375" customWidth="1"/>
   </cols>
@@ -1375,7 +1384,7 @@
         <v>32</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J5" s="17"/>
       <c r="K5" s="4"/>
@@ -1386,7 +1395,7 @@
         <v>1002</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6">
         <v>11</v>
@@ -1398,13 +1407,13 @@
         <v>31</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="J6" s="17"/>
       <c r="K6" s="4"/>
@@ -1415,7 +1424,7 @@
         <v>1003</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D7">
         <v>12</v>
@@ -1427,13 +1436,13 @@
         <v>31</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J7" s="17"/>
       <c r="K7" s="4"/>
@@ -1444,7 +1453,7 @@
         <v>1004</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D8">
         <v>13</v>
@@ -1456,13 +1465,13 @@
         <v>31</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J8" s="17"/>
       <c r="K8" s="4"/>
@@ -1473,7 +1482,7 @@
         <v>1005</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D9">
         <v>14</v>
@@ -1485,13 +1494,13 @@
         <v>31</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>28</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="4"/>
@@ -1502,7 +1511,7 @@
         <v>1006</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D10">
         <v>15</v>
@@ -1514,13 +1523,13 @@
         <v>31</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J10" s="17"/>
       <c r="K10" s="4"/>
@@ -1530,16 +1539,16 @@
         <v>10001</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E11">
         <v>-1</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>28</v>
@@ -1553,16 +1562,16 @@
         <v>10002</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E12">
         <v>-1</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>32</v>
@@ -1576,19 +1585,19 @@
         <v>10003</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E13">
         <v>-1</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>29</v>
@@ -1599,19 +1608,19 @@
         <v>10004</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E14">
         <v>-1</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>29</v>
@@ -1622,19 +1631,19 @@
         <v>10005</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E15">
         <v>-1</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>29</v>

--- a/DataConfig/Datas/items.xlsx
+++ b/DataConfig/Datas/items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="13560"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
   <si>
     <t>##var</t>
   </si>
@@ -146,6 +146,12 @@
   </si>
   <si>
     <t>Assets/GameRes/Picture/Food/white.png</t>
+  </si>
+  <si>
+    <t>羊肉</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/AllFood/Barbecue/RoastFood.prefab</t>
   </si>
   <si>
     <t>蒸蛋</t>
@@ -175,7 +181,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -223,48 +229,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -309,6 +286,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -348,6 +340,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,18 +380,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -398,19 +482,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,115 +506,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,21 +604,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -641,6 +632,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,148 +703,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -847,35 +853,35 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="31" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="31" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="23" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="23" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -884,52 +890,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1200,10 +1206,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1497,7 +1503,7 @@
         <v>41</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>36</v>
@@ -1536,45 +1542,51 @@
     </row>
     <row r="11" ht="16.5" spans="2:9">
       <c r="B11" s="4">
-        <v>10001</v>
+        <v>1007</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
       <c r="E11">
-        <v>-1</v>
-      </c>
-      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="2:9">
       <c r="B12" s="4">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12">
+        <v>-1</v>
+      </c>
+      <c r="E12">
+        <v>200</v>
+      </c>
+      <c r="F12" t="s">
         <v>47</v>
       </c>
-      <c r="E12">
-        <v>-1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>45</v>
-      </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>29</v>
@@ -1582,22 +1594,25 @@
     </row>
     <row r="13" ht="16.5" spans="2:9">
       <c r="B13" s="4">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13">
+        <v>-1</v>
+      </c>
+      <c r="E13">
+        <v>300</v>
+      </c>
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" t="s">
         <v>48</v>
       </c>
-      <c r="E13">
-        <v>-1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
       <c r="H13" s="5" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>29</v>
@@ -1605,22 +1620,25 @@
     </row>
     <row r="14" ht="16.5" spans="2:9">
       <c r="B14" s="4">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="D14">
+        <v>-1</v>
+      </c>
       <c r="E14">
-        <v>-1</v>
+        <v>400</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>29</v>
@@ -1628,29 +1646,58 @@
     </row>
     <row r="15" ht="16.5" spans="2:9">
       <c r="B15" s="4">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="D15">
+        <v>-1</v>
       </c>
       <c r="E15">
-        <v>-1</v>
+        <v>500</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="3:3">
-      <c r="C21" s="6"/>
+    <row r="16" ht="16.5" spans="2:9">
+      <c r="B16" s="4">
+        <v>10005</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16">
+        <v>-1</v>
+      </c>
+      <c r="E16">
+        <v>600</v>
+      </c>
+      <c r="F16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/DataConfig/Datas/items.xlsx
+++ b/DataConfig/Datas/items.xlsx
@@ -13,8 +13,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>63202</author>
+  </authors>
+  <commentList>
+    <comment ref="K3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>63202:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1 底层
+2 中层
+只有一个层内的食物才会发生碰撞</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="56">
   <si>
     <t>##var</t>
   </si>
@@ -46,6 +80,9 @@
     <t>get_method</t>
   </si>
   <si>
+    <t>collision_layer</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -89,6 +126,9 @@
   </si>
   <si>
     <t>获取方式</t>
+  </si>
+  <si>
+    <t>碰撞层级</t>
   </si>
   <si>
     <t>钱</t>
@@ -188,7 +228,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,6 +397,17 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1208,8 +1259,8 @@
   <sheetPr/>
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1217,9 +1268,9 @@
     <col min="4" max="4" width="7.66666666666667" customWidth="1"/>
     <col min="5" max="5" width="9.39166666666667" customWidth="1"/>
     <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="7" width="27.25" customWidth="1"/>
-    <col min="8" max="8" width="35.15" customWidth="1"/>
-    <col min="9" max="9" width="51.4833333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.975" customWidth="1"/>
+    <col min="8" max="8" width="25.1666666666667" customWidth="1"/>
+    <col min="9" max="9" width="26.8083333333333" style="1" customWidth="1"/>
     <col min="10" max="10" width="26.875" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.375" customWidth="1"/>
   </cols>
@@ -1255,7 +1306,9 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2"/>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
@@ -1264,36 +1317,38 @@
     </row>
     <row r="2" ht="16.5" spans="1:16">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="3"/>
       <c r="L2" s="12"/>
       <c r="M2" s="13"/>
       <c r="N2" s="12"/>
@@ -1302,36 +1357,38 @@
     </row>
     <row r="3" ht="16.5" spans="1:16">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="L3" s="8"/>
       <c r="M3" s="16"/>
       <c r="N3" s="8"/>
@@ -1344,7 +1401,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <v>-1</v>
@@ -1353,26 +1410,28 @@
         <v>-1</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J4" s="17"/>
-      <c r="K4" s="4"/>
+      <c r="K4" s="4">
+        <v>-1</v>
+      </c>
     </row>
     <row r="5" ht="16.5" spans="2:11">
       <c r="B5" s="4">
         <v>1001</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -1381,19 +1440,21 @@
         <v>8</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J5" s="17"/>
-      <c r="K5" s="4"/>
+      <c r="K5" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" ht="16.5" spans="1:11">
       <c r="A6" s="4"/>
@@ -1401,7 +1462,7 @@
         <v>1002</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6">
         <v>11</v>
@@ -1410,19 +1471,21 @@
         <v>10</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J6" s="17"/>
-      <c r="K6" s="4"/>
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" ht="16.5" spans="1:11">
       <c r="A7" s="4"/>
@@ -1430,7 +1493,7 @@
         <v>1003</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D7">
         <v>12</v>
@@ -1439,19 +1502,21 @@
         <v>7</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J7" s="17"/>
-      <c r="K7" s="4"/>
+      <c r="K7" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" ht="16.5" spans="1:11">
       <c r="A8" s="4"/>
@@ -1459,7 +1524,7 @@
         <v>1004</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D8">
         <v>13</v>
@@ -1468,19 +1533,21 @@
         <v>6</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J8" s="17"/>
-      <c r="K8" s="4"/>
+      <c r="K8" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" ht="16.5" spans="1:11">
       <c r="A9" s="4"/>
@@ -1488,7 +1555,7 @@
         <v>1005</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D9">
         <v>14</v>
@@ -1497,19 +1564,21 @@
         <v>5</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J9" s="17"/>
-      <c r="K9" s="4"/>
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" ht="16.5" spans="1:11">
       <c r="A10" s="4"/>
@@ -1517,7 +1586,7 @@
         <v>1006</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D10">
         <v>15</v>
@@ -1526,26 +1595,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J10" s="17"/>
-      <c r="K10" s="4"/>
+      <c r="K10" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" ht="16.5" spans="2:9">
+    <row r="11" ht="16.5" spans="2:11">
       <c r="B11" s="4">
         <v>1007</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D11">
         <v>30</v>
@@ -1554,24 +1625,27 @@
         <v>10</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="2:9">
+    <row r="12" ht="16.5" spans="2:11">
       <c r="B12" s="4">
         <v>10001</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D12">
         <v>-1</v>
@@ -1580,24 +1654,27 @@
         <v>200</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="K12">
+        <v>-1</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="2:9">
+    <row r="13" ht="16.5" spans="2:11">
       <c r="B13" s="4">
         <v>10002</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D13">
         <v>-1</v>
@@ -1606,24 +1683,27 @@
         <v>300</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="K13">
+        <v>-1</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="2:9">
+    <row r="14" ht="16.5" spans="2:11">
       <c r="B14" s="4">
         <v>10003</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D14">
         <v>-1</v>
@@ -1632,24 +1712,27 @@
         <v>400</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="K14">
+        <v>-1</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="2:9">
+    <row r="15" ht="16.5" spans="2:11">
       <c r="B15" s="4">
         <v>10004</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D15">
         <v>-1</v>
@@ -1658,24 +1741,27 @@
         <v>500</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="K15">
+        <v>-1</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="2:9">
+    <row r="16" ht="16.5" spans="2:11">
       <c r="B16" s="4">
         <v>10005</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D16">
         <v>-1</v>
@@ -1684,16 +1770,19 @@
         <v>600</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="K16">
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="3:3">
@@ -1707,5 +1796,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/DataConfig/Datas/items.xlsx
+++ b/DataConfig/Datas/items.xlsx
@@ -1260,7 +1260,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1268,9 +1268,9 @@
     <col min="4" max="4" width="7.66666666666667" customWidth="1"/>
     <col min="5" max="5" width="9.39166666666667" customWidth="1"/>
     <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="7" width="21.975" customWidth="1"/>
-    <col min="8" max="8" width="25.1666666666667" customWidth="1"/>
-    <col min="9" max="9" width="26.8083333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31.8083333333333" customWidth="1"/>
+    <col min="8" max="8" width="37.7583333333333" customWidth="1"/>
+    <col min="9" max="9" width="51.375" style="1" customWidth="1"/>
     <col min="10" max="10" width="26.875" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.375" customWidth="1"/>
   </cols>

--- a/DataConfig/Datas/items.xlsx
+++ b/DataConfig/Datas/items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="25605" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="59">
   <si>
     <t>##var</t>
   </si>
@@ -194,6 +194,12 @@
     <t>Assets/GameRes/Prefabs/AllFood/Barbecue/RoastFood.prefab</t>
   </si>
   <si>
+    <t>面粉</t>
+  </si>
+  <si>
+    <t>蜂蜜</t>
+  </si>
+  <si>
     <t>蒸蛋</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
   </si>
   <si>
     <t>烤土豆</t>
+  </si>
+  <si>
+    <t>蜂蜜松饼</t>
   </si>
 </sst>
 </file>
@@ -1257,10 +1266,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1642,83 +1651,80 @@
     </row>
     <row r="12" ht="16.5" spans="2:11">
       <c r="B12" s="4">
-        <v>10001</v>
+        <v>1008</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="E12">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="2:9">
+      <c r="B13" s="4">
+        <v>1009</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" ht="16.5" spans="2:11">
-      <c r="B13" s="4">
-        <v>10002</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="D13">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" t="s">
         <v>49</v>
       </c>
-      <c r="G13" t="s">
-        <v>50</v>
-      </c>
       <c r="H13" s="5" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13">
-        <v>-1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="2:11">
       <c r="B14" s="4">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D14">
         <v>-1</v>
       </c>
       <c r="E14">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>31</v>
@@ -1729,25 +1735,25 @@
     </row>
     <row r="15" ht="16.5" spans="2:11">
       <c r="B15" s="4">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15">
         <v>-1</v>
       </c>
       <c r="E15">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>31</v>
@@ -1758,25 +1764,25 @@
     </row>
     <row r="16" ht="16.5" spans="2:11">
       <c r="B16" s="4">
-        <v>10005</v>
+        <v>10003</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16">
         <v>-1</v>
       </c>
       <c r="E16">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>31</v>
@@ -1785,8 +1791,92 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="3:3">
-      <c r="C22" s="6"/>
+    <row r="17" ht="16.5" spans="2:11">
+      <c r="B17" s="4">
+        <v>10004</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17">
+        <v>-1</v>
+      </c>
+      <c r="E17">
+        <v>500</v>
+      </c>
+      <c r="F17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="2:11">
+      <c r="B18" s="4">
+        <v>10005</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18">
+        <v>-1</v>
+      </c>
+      <c r="E18">
+        <v>600</v>
+      </c>
+      <c r="F18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="2:9">
+      <c r="B19">
+        <v>10006</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19">
+        <v>-1</v>
+      </c>
+      <c r="E19">
+        <v>800</v>
+      </c>
+      <c r="F19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/DataConfig/Datas/items.xlsx
+++ b/DataConfig/Datas/items.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FoodStall\ProjectX\DataConfig\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628C2F08-AE1F-4EDC-8663-86BE18801979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="25605" windowHeight="10455"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>63202</author>
   </authors>
   <commentList>
-    <comment ref="K3" authorId="0">
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -48,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="101">
   <si>
     <t>##var</t>
   </si>
@@ -224,20 +230,183 @@
     <t>烤土豆</t>
   </si>
   <si>
+    <t>洋葱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/AllFood/FryFood/onion.prefab</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>南瓜</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>白萝卜</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡萝卜</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>草鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>三文鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>章鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>西红柿</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄瓜</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>小青菜</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>白菜</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸菜</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>米饭</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>面条</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>茄子</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛奶</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪肉</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>人们圈养的家猪肉，较为常见</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉丝</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>扇贝</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>红烧肉</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一道传统的菜品，普通却也美味</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸菜鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>辣白菜</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋炒饭</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>红烧茄子</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>西红柿炒鸡蛋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒青菜</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫保鸡丁</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>土豆炖牛肉</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鸡炖蘑菇</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>烤章鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>烤蘑菇</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪肉蒸饺</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>南瓜米糕</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧麦</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸茄子</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸扇贝</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸素包子</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>蜂蜜松饼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,136 +447,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -418,8 +457,30 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑 Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -438,182 +499,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -662,249 +549,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -913,96 +564,54 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="22" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="22" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="23" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="23" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1260,31 +869,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:P24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="7.66666666666667" customWidth="1"/>
-    <col min="5" max="5" width="9.39166666666667" customWidth="1"/>
+    <col min="4" max="4" width="7.625" customWidth="1"/>
+    <col min="5" max="5" width="9.375" customWidth="1"/>
     <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="7" width="31.8083333333333" customWidth="1"/>
-    <col min="8" max="8" width="37.7583333333333" customWidth="1"/>
+    <col min="7" max="7" width="31.75" customWidth="1"/>
+    <col min="8" max="8" width="37.75" customWidth="1"/>
     <col min="9" max="9" width="51.375" style="1" customWidth="1"/>
     <col min="10" max="10" width="26.875" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:16">
+    <row r="1" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1309,7 +918,7 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -1318,13 +927,13 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="10"/>
-    </row>
-    <row r="2" ht="16.5" spans="1:16">
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="13"/>
+    </row>
+    <row r="2" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -1349,7 +958,7 @@
       <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -1358,13 +967,13 @@
       <c r="K2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="12"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="8"/>
       <c r="O2" s="14"/>
       <c r="P2" s="15"/>
     </row>
-    <row r="3" ht="16.5" spans="1:16">
+    <row r="3" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1389,7 +998,7 @@
       <c r="H3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="5" t="s">
         <v>24</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -1398,13 +1007,13 @@
       <c r="K3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" ht="16.5" spans="1:11">
+      <c r="L3" s="6"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4">
         <v>1</v>
@@ -1424,18 +1033,18 @@
       <c r="G4" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="17"/>
+      <c r="J4" s="11"/>
       <c r="K4" s="4">
         <v>-1</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="2:11">
+    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5" s="4">
         <v>1001</v>
       </c>
@@ -1454,18 +1063,18 @@
       <c r="G5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="17"/>
+      <c r="J5" s="11"/>
       <c r="K5" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:11">
+    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4">
         <v>1002</v>
@@ -1485,18 +1094,18 @@
       <c r="G6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="17"/>
+      <c r="J6" s="11"/>
       <c r="K6" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:11">
+    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4">
         <v>1003</v>
@@ -1516,18 +1125,18 @@
       <c r="G7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="17"/>
+      <c r="J7" s="11"/>
       <c r="K7" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:11">
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4">
         <v>1004</v>
@@ -1547,18 +1156,18 @@
       <c r="G8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="17"/>
+      <c r="J8" s="11"/>
       <c r="K8" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:11">
+    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4">
         <v>1005</v>
@@ -1578,18 +1187,18 @@
       <c r="G9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="17"/>
+      <c r="J9" s="11"/>
       <c r="K9" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:11">
+    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4">
         <v>1006</v>
@@ -1609,18 +1218,18 @@
       <c r="G10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="17"/>
+      <c r="J10" s="11"/>
       <c r="K10" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="2:11">
+    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>1007</v>
       </c>
@@ -1639,17 +1248,17 @@
       <c r="G11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="4" t="s">
         <v>47</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="2:11">
+    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>1008</v>
       </c>
@@ -1668,17 +1277,17 @@
       <c r="G12" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="4" t="s">
         <v>38</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="2:9">
+    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>1009</v>
       </c>
@@ -1697,195 +1306,1165 @@
       <c r="G13" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="2:11">
-      <c r="B14" s="4">
+    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="16">
+        <v>1010</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14" s="16">
+        <v>5</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B15" s="16">
+        <v>1011</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15" s="16">
+        <v>5</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B16" s="16">
+        <v>1012</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16" s="16">
+        <v>5</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B17" s="16">
+        <v>1013</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16">
+        <v>5</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B18" s="16">
+        <v>1014</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16">
+        <v>5</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B19" s="16">
+        <v>1015</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19" s="16">
+        <v>5</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B20" s="16">
+        <v>1016</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20" s="16">
+        <v>5</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B21" s="16">
+        <v>1017</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21" s="16">
+        <v>5</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B22" s="16">
+        <v>1018</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22" s="16">
+        <v>5</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B23" s="16">
+        <v>1019</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23" s="16">
+        <v>5</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B24" s="16">
+        <v>1020</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24" s="16">
+        <v>5</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B25" s="16">
+        <v>1021</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25" s="16">
+        <v>5</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B26" s="16">
+        <v>1022</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26" s="16">
+        <v>5</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B27" s="16">
+        <v>1023</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27" s="16">
+        <v>5</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B28" s="16">
+        <v>1024</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28" s="16">
+        <v>5</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B29" s="16">
+        <v>1025</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29" s="16">
+        <v>5</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B30" s="16">
+        <v>1026</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30" s="16">
+        <v>5</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B31" s="16">
+        <v>1027</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31" s="16">
+        <v>5</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B32" s="16">
+        <v>1028</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="E32" s="16">
+        <v>5</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B33" s="16">
+        <v>1029</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33" s="16">
+        <v>5</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I33" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B34" s="16">
         <v>10001</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C34" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D14">
-        <v>-1</v>
-      </c>
-      <c r="E14">
+      <c r="D34">
+        <v>-1</v>
+      </c>
+      <c r="E34">
         <v>200</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F34" t="s">
         <v>51</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G34" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H34" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I34" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="K14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" ht="16.5" spans="2:11">
-      <c r="B15" s="4">
+    </row>
+    <row r="35" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B35" s="16">
         <v>10002</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C35" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D15">
-        <v>-1</v>
-      </c>
-      <c r="E15">
+      <c r="D35">
+        <v>-1</v>
+      </c>
+      <c r="E35">
         <v>300</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F35" t="s">
         <v>51</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G35" t="s">
         <v>52</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H35" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I35" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="K15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" ht="16.5" spans="2:11">
-      <c r="B16" s="4">
+    </row>
+    <row r="36" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B36" s="16">
         <v>10003</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C36" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D16">
-        <v>-1</v>
-      </c>
-      <c r="E16">
+      <c r="D36">
+        <v>-1</v>
+      </c>
+      <c r="E36">
         <v>400</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F36" t="s">
         <v>51</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G36" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H36" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I36" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="K16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" ht="16.5" spans="2:11">
-      <c r="B17" s="4">
+    </row>
+    <row r="37" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B37" s="16">
         <v>10004</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C37" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D17">
-        <v>-1</v>
-      </c>
-      <c r="E17">
+      <c r="D37">
+        <v>-1</v>
+      </c>
+      <c r="E37">
         <v>500</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F37" t="s">
         <v>51</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G37" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H37" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I37" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="K17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" ht="16.5" spans="2:11">
-      <c r="B18" s="4">
+    </row>
+    <row r="38" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B38" s="16">
         <v>10005</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C38" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D18">
-        <v>-1</v>
-      </c>
-      <c r="E18">
+      <c r="D38">
+        <v>-1</v>
+      </c>
+      <c r="E38">
         <v>600</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F38" t="s">
         <v>51</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G38" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H38" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I38" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="K18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" ht="16.5" spans="2:9">
-      <c r="B19">
+    </row>
+    <row r="39" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B39" s="16">
         <v>10006</v>
       </c>
-      <c r="C19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19">
-        <v>-1</v>
-      </c>
-      <c r="E19">
+      <c r="C39" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39">
+        <v>-1</v>
+      </c>
+      <c r="E39">
+        <v>600</v>
+      </c>
+      <c r="F39" t="s">
+        <v>51</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I39" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B40" s="16">
+        <v>10007</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40">
+        <v>-1</v>
+      </c>
+      <c r="E40">
+        <v>600</v>
+      </c>
+      <c r="F40" t="s">
+        <v>51</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H40" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I40" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B41" s="16">
+        <v>10008</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41">
+        <v>-1</v>
+      </c>
+      <c r="E41">
+        <v>600</v>
+      </c>
+      <c r="F41" t="s">
+        <v>51</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H41" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I41" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B42" s="16">
+        <v>10009</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42">
+        <v>-1</v>
+      </c>
+      <c r="E42">
+        <v>600</v>
+      </c>
+      <c r="F42" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I42" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B43" s="16">
+        <v>10010</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43">
+        <v>-1</v>
+      </c>
+      <c r="E43">
+        <v>600</v>
+      </c>
+      <c r="F43" t="s">
+        <v>51</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H43" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I43" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B44" s="16">
+        <v>10011</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44">
+        <v>-1</v>
+      </c>
+      <c r="E44">
+        <v>600</v>
+      </c>
+      <c r="F44" t="s">
+        <v>51</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H44" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I44" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B45" s="16">
+        <v>10012</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45">
+        <v>-1</v>
+      </c>
+      <c r="E45">
+        <v>600</v>
+      </c>
+      <c r="F45" t="s">
+        <v>51</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H45" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I45" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B46" s="16">
+        <v>10013</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46">
+        <v>-1</v>
+      </c>
+      <c r="E46">
+        <v>600</v>
+      </c>
+      <c r="F46" t="s">
+        <v>51</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H46" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I46" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B47" s="16">
+        <v>10014</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47">
+        <v>-1</v>
+      </c>
+      <c r="E47">
+        <v>600</v>
+      </c>
+      <c r="F47" t="s">
+        <v>51</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H47" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I47" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B48" s="16">
+        <v>10015</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48">
+        <v>-1</v>
+      </c>
+      <c r="E48">
+        <v>600</v>
+      </c>
+      <c r="F48" t="s">
+        <v>51</v>
+      </c>
+      <c r="G48" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H48" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I48" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B49" s="16">
+        <v>10016</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49">
+        <v>-1</v>
+      </c>
+      <c r="E49">
+        <v>600</v>
+      </c>
+      <c r="F49" t="s">
+        <v>51</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H49" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I49" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B50" s="16">
+        <v>10017</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50">
+        <v>-1</v>
+      </c>
+      <c r="E50">
+        <v>600</v>
+      </c>
+      <c r="F50" t="s">
+        <v>51</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H50" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I50" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B51" s="16">
+        <v>10018</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51">
+        <v>-1</v>
+      </c>
+      <c r="E51">
+        <v>600</v>
+      </c>
+      <c r="F51" t="s">
+        <v>51</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H51" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I51" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B52" s="16">
+        <v>10019</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D52">
+        <v>-1</v>
+      </c>
+      <c r="E52">
+        <v>600</v>
+      </c>
+      <c r="F52" t="s">
+        <v>51</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H52" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I52" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B53" s="16">
+        <v>10020</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53">
+        <v>-1</v>
+      </c>
+      <c r="E53">
+        <v>600</v>
+      </c>
+      <c r="F53" t="s">
+        <v>51</v>
+      </c>
+      <c r="G53" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H53" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I53" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B54" s="16">
+        <v>10021</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54">
+        <v>-1</v>
+      </c>
+      <c r="E54">
+        <v>600</v>
+      </c>
+      <c r="F54" t="s">
+        <v>51</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H54" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I54" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B55" s="16">
+        <v>10022</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55">
+        <v>-1</v>
+      </c>
+      <c r="E55">
+        <v>600</v>
+      </c>
+      <c r="F55" t="s">
+        <v>51</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H55" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I55" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B56" s="16">
+        <v>10023</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56">
+        <v>-1</v>
+      </c>
+      <c r="E56">
+        <v>600</v>
+      </c>
+      <c r="F56" t="s">
+        <v>51</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H56" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I56" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B57" s="16">
+        <v>10024</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D57" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E57" s="16">
         <v>800</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F57" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="G19" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19" s="5" t="s">
+      <c r="G57" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="H57" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I57" s="16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="O2:P2"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/DataConfig/Datas/items.xlsx
+++ b/DataConfig/Datas/items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25605" windowHeight="10455"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="63">
   <si>
     <t>##var</t>
   </si>
@@ -200,6 +200,15 @@
     <t>蜂蜜</t>
   </si>
   <si>
+    <t>芝麻</t>
+  </si>
+  <si>
+    <t>桂花糖</t>
+  </si>
+  <si>
+    <t>甜酒</t>
+  </si>
+  <si>
     <t>蒸蛋</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
   </si>
   <si>
     <t>蜂蜜松饼</t>
+  </si>
+  <si>
+    <t>桂花酒酿元宵</t>
   </si>
 </sst>
 </file>
@@ -1266,14 +1278,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
+    <col min="3" max="3" width="14.5666666666667" customWidth="1"/>
     <col min="4" max="4" width="7.66666666666667" customWidth="1"/>
     <col min="5" max="5" width="9.39166666666667" customWidth="1"/>
     <col min="6" max="6" width="12.75" customWidth="1"/>
@@ -1678,7 +1691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="2:9">
+    <row r="13" ht="16.5" spans="2:11">
       <c r="B13" s="4">
         <v>1009</v>
       </c>
@@ -1703,115 +1716,118 @@
       <c r="I13" s="5" t="s">
         <v>38</v>
       </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" ht="16.5" spans="2:11">
       <c r="B14" s="4">
-        <v>10001</v>
-      </c>
-      <c r="C14" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C14" t="s">
         <v>50</v>
       </c>
       <c r="D14">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="2:11">
       <c r="B15" s="4">
-        <v>10002</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>53</v>
+        <v>1011</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
       </c>
       <c r="D15">
-        <v>-1</v>
+        <v>25</v>
       </c>
       <c r="E15">
-        <v>300</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" t="s">
         <v>51</v>
       </c>
-      <c r="G15" t="s">
-        <v>52</v>
-      </c>
       <c r="H15" s="5" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="2:11">
       <c r="B16" s="4">
-        <v>10003</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>54</v>
+        <v>1012</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
       </c>
       <c r="D16">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="E16">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
         <v>52</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="2:11">
       <c r="B17" s="4">
-        <v>10004</v>
+        <v>10001</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D17">
         <v>-1</v>
       </c>
       <c r="E17">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>31</v>
@@ -1822,25 +1838,25 @@
     </row>
     <row r="18" ht="16.5" spans="2:11">
       <c r="B18" s="4">
-        <v>10005</v>
+        <v>10002</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18">
         <v>-1</v>
       </c>
       <c r="E18">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F18" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>31</v>
@@ -1849,34 +1865,153 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="2:9">
-      <c r="B19">
-        <v>10006</v>
-      </c>
-      <c r="C19" t="s">
-        <v>58</v>
+    <row r="19" ht="16.5" spans="2:11">
+      <c r="B19" s="4">
+        <v>10003</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="D19">
         <v>-1</v>
       </c>
       <c r="E19">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" s="6"/>
+      <c r="K19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="2:11">
+      <c r="B20" s="4">
+        <v>10004</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20">
+        <v>-1</v>
+      </c>
+      <c r="E20">
+        <v>500</v>
+      </c>
+      <c r="F20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" spans="2:11">
+      <c r="B21" s="4">
+        <v>10005</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21">
+        <v>-1</v>
+      </c>
+      <c r="E21">
+        <v>600</v>
+      </c>
+      <c r="F21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" spans="2:11">
+      <c r="B22">
+        <v>10006</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22">
+        <v>-1</v>
+      </c>
+      <c r="E22">
+        <v>800</v>
+      </c>
+      <c r="F22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5" spans="2:11">
+      <c r="B23">
+        <v>10007</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23">
+        <v>-1</v>
+      </c>
+      <c r="E23">
+        <v>800</v>
+      </c>
+      <c r="F23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/DataConfig/Datas/items.xlsx
+++ b/DataConfig/Datas/items.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FoodStall\ProjectX\DataConfig\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230B106F-C9AA-43C1-A5B8-16C5DB716C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>63202</author>
   </authors>
   <commentList>
-    <comment ref="K3" authorId="0">
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -48,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="109">
   <si>
     <t>##var</t>
   </si>
@@ -233,23 +239,203 @@
     <t>烤土豆</t>
   </si>
   <si>
+    <t>洋葱</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/AllFood/FryFood/onion.prefab</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>南瓜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>白萝卜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡萝卜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>草鱼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>三文鱼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>章鱼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>西红柿</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄瓜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>小青菜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>白菜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸菜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>米饭</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>面条</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>茄子</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛奶</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪肉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>人们圈养的家猪肉，较为常见</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉丝</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>扇贝</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>红烧肉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>一道传统的菜品，普通却也美味</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸菜鱼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>辣白菜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋炒饭</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>红烧茄子</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>西红柿炒鸡蛋</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒青菜</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫保鸡丁</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>土豆炖牛肉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鸡炖蘑菇</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>烤章鱼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>烤蘑菇</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪肉蒸饺</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>南瓜米糕</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧麦</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸茄子</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸扇贝</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸素包子</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>蜂蜜松饼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>桂花酒酿元宵</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜谱</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸鸡蛋有很好的营养，味道也很美味，比豆腐脑还嫩滑，很多人家里经常做蒸鸡蛋吃，蒸鸡蛋做法也非常简单快速。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameRes/Picture/Food/maco.png</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameRes/Picture/Character/DeliveryMan.png</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,136 +476,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -430,8 +486,30 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑 Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -450,182 +528,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -674,249 +578,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -925,96 +593,54 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="22" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="22" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="23" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="23" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1272,32 +898,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:P27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="14.5666666666667" customWidth="1"/>
-    <col min="4" max="4" width="7.66666666666667" customWidth="1"/>
-    <col min="5" max="5" width="9.39166666666667" customWidth="1"/>
+    <col min="3" max="3" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="7.625" customWidth="1"/>
+    <col min="5" max="5" width="9.375" customWidth="1"/>
     <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="7" width="31.8083333333333" customWidth="1"/>
-    <col min="8" max="8" width="37.7583333333333" customWidth="1"/>
+    <col min="7" max="7" width="31.75" customWidth="1"/>
+    <col min="8" max="8" width="37.75" customWidth="1"/>
     <col min="9" max="9" width="51.375" style="1" customWidth="1"/>
     <col min="10" max="10" width="26.875" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:16">
+    <row r="1" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1322,7 +948,7 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -1331,13 +957,13 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="10"/>
-    </row>
-    <row r="2" ht="16.5" spans="1:16">
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="13"/>
+    </row>
+    <row r="2" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -1362,7 +988,7 @@
       <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -1371,13 +997,13 @@
       <c r="K2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="12"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="8"/>
       <c r="O2" s="14"/>
       <c r="P2" s="15"/>
     </row>
-    <row r="3" ht="16.5" spans="1:16">
+    <row r="3" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1402,7 +1028,7 @@
       <c r="H3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="5" t="s">
         <v>24</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -1411,13 +1037,13 @@
       <c r="K3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" ht="16.5" spans="1:11">
+      <c r="L3" s="6"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4">
         <v>1</v>
@@ -1437,18 +1063,18 @@
       <c r="G4" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="17"/>
+      <c r="J4" s="11"/>
       <c r="K4" s="4">
         <v>-1</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="2:11">
+    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5" s="4">
         <v>1001</v>
       </c>
@@ -1467,18 +1093,18 @@
       <c r="G5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="17"/>
+      <c r="J5" s="11"/>
       <c r="K5" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:11">
+    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4">
         <v>1002</v>
@@ -1498,18 +1124,18 @@
       <c r="G6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="17"/>
+      <c r="J6" s="11"/>
       <c r="K6" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:11">
+    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4">
         <v>1003</v>
@@ -1529,18 +1155,18 @@
       <c r="G7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="17"/>
+      <c r="J7" s="11"/>
       <c r="K7" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:11">
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4">
         <v>1004</v>
@@ -1560,18 +1186,18 @@
       <c r="G8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="17"/>
+      <c r="J8" s="11"/>
       <c r="K8" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:11">
+    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4">
         <v>1005</v>
@@ -1591,18 +1217,18 @@
       <c r="G9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="17"/>
+      <c r="J9" s="11"/>
       <c r="K9" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:11">
+    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4">
         <v>1006</v>
@@ -1622,18 +1248,18 @@
       <c r="G10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="17"/>
+      <c r="J10" s="11"/>
       <c r="K10" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="2:11">
+    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>1007</v>
       </c>
@@ -1652,17 +1278,17 @@
       <c r="G11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="4" t="s">
         <v>47</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="2:11">
+    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>1008</v>
       </c>
@@ -1681,17 +1307,17 @@
       <c r="G12" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="4" t="s">
         <v>38</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="2:11">
+    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>1009</v>
       </c>
@@ -1710,317 +1336,1284 @@
       <c r="G13" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="4" t="s">
         <v>38</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="2:11">
-      <c r="B14" s="4">
+    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="16">
         <v>1010</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14" s="16">
+        <v>5</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B15" s="16">
+        <v>1011</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15" s="16">
+        <v>5</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B16" s="16">
+        <v>1012</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16" s="16">
+        <v>5</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B17" s="16">
+        <v>1013</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16">
+        <v>5</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B18" s="16">
+        <v>1014</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16">
+        <v>5</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B19" s="16">
+        <v>1015</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19" s="16">
+        <v>5</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B20" s="16">
+        <v>1016</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20" s="16">
+        <v>5</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B21" s="16">
+        <v>1017</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21" s="16">
+        <v>5</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B22" s="16">
+        <v>1018</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22" s="16">
+        <v>5</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B23" s="16">
+        <v>1019</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23" s="16">
+        <v>5</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B24" s="16">
+        <v>1020</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24" s="16">
+        <v>5</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B25" s="16">
+        <v>1021</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25" s="16">
+        <v>5</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B26" s="16">
+        <v>1022</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26" s="16">
+        <v>5</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B27" s="16">
+        <v>1023</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27" s="16">
+        <v>5</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B28" s="16">
+        <v>1024</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28" s="16">
+        <v>5</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B29" s="16">
+        <v>1025</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29" s="16">
+        <v>5</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B30" s="16">
+        <v>1026</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30" s="16">
+        <v>5</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B31" s="16">
+        <v>1027</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31" s="16">
+        <v>5</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B32" s="16">
+        <v>1028</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="E32" s="16">
+        <v>5</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B33" s="16">
+        <v>1029</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33" s="16">
+        <v>5</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I33" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B34" s="4">
+        <v>1030</v>
+      </c>
+      <c r="C34" t="s">
         <v>50</v>
       </c>
-      <c r="D14">
+      <c r="D34">
         <v>20</v>
       </c>
-      <c r="E14">
+      <c r="E34">
         <v>15</v>
       </c>
-      <c r="F14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="F34" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H34" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I34" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K14">
+      <c r="K34">
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="2:11">
-      <c r="B15" s="4">
-        <v>1011</v>
-      </c>
-      <c r="C15" t="s">
+    <row r="35" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B35" s="4">
+        <v>1031</v>
+      </c>
+      <c r="C35" t="s">
         <v>51</v>
       </c>
-      <c r="D15">
+      <c r="D35">
         <v>25</v>
       </c>
-      <c r="E15">
+      <c r="E35">
         <v>16</v>
       </c>
-      <c r="F15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="F35" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H35" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I35" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K15">
+      <c r="K35">
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="2:11">
-      <c r="B16" s="4">
-        <v>1012</v>
-      </c>
-      <c r="C16" t="s">
+    <row r="36" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B36" s="4">
+        <v>1032</v>
+      </c>
+      <c r="C36" t="s">
         <v>52</v>
       </c>
-      <c r="D16">
+      <c r="D36">
         <v>15</v>
       </c>
-      <c r="E16">
+      <c r="E36">
         <v>10</v>
       </c>
-      <c r="F16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="F36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H36" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I36" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K16">
+      <c r="K36">
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="2:11">
-      <c r="B17" s="4">
+    <row r="37" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B37" s="16">
         <v>10001</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C37" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D17">
-        <v>-1</v>
-      </c>
-      <c r="E17">
+      <c r="D37">
+        <v>-1</v>
+      </c>
+      <c r="E37">
         <v>200</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F37" t="s">
         <v>54</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G37" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H37" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I37" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="K17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" ht="16.5" spans="2:11">
-      <c r="B18" s="4">
+    </row>
+    <row r="38" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B38" s="16">
         <v>10002</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C38" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D18">
-        <v>-1</v>
-      </c>
-      <c r="E18">
+      <c r="D38">
+        <v>-1</v>
+      </c>
+      <c r="E38">
         <v>300</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F38" t="s">
         <v>54</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G38" t="s">
         <v>55</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H38" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I38" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="K18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" ht="16.5" spans="2:11">
-      <c r="B19" s="4">
+    </row>
+    <row r="39" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B39" s="16">
         <v>10003</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C39" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D19">
-        <v>-1</v>
-      </c>
-      <c r="E19">
+      <c r="D39">
+        <v>-1</v>
+      </c>
+      <c r="E39">
         <v>400</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F39" t="s">
         <v>54</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G39" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H39" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I39" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="K19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" ht="16.5" spans="2:11">
-      <c r="B20" s="4">
+    </row>
+    <row r="40" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B40" s="16">
         <v>10004</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C40" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D20">
-        <v>-1</v>
-      </c>
-      <c r="E20">
+      <c r="D40">
+        <v>-1</v>
+      </c>
+      <c r="E40">
         <v>500</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F40" t="s">
         <v>54</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G40" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H40" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I40" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="K20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" ht="16.5" spans="2:11">
-      <c r="B21" s="4">
+    </row>
+    <row r="41" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B41" s="16">
         <v>10005</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C41" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D21">
-        <v>-1</v>
-      </c>
-      <c r="E21">
+      <c r="D41">
+        <v>-1</v>
+      </c>
+      <c r="E41">
         <v>600</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F41" t="s">
         <v>54</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G41" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H41" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I41" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="K21">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" ht="16.5" spans="2:11">
-      <c r="B22">
+    </row>
+    <row r="42" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B42" s="16">
         <v>10006</v>
       </c>
-      <c r="C22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22">
-        <v>-1</v>
-      </c>
-      <c r="E22">
+      <c r="C42" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42">
+        <v>-1</v>
+      </c>
+      <c r="E42">
+        <v>600</v>
+      </c>
+      <c r="F42" t="s">
+        <v>54</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I42" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B43" s="16">
+        <v>10007</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43">
+        <v>-1</v>
+      </c>
+      <c r="E43">
+        <v>600</v>
+      </c>
+      <c r="F43" t="s">
+        <v>54</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H43" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I43" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B44" s="16">
+        <v>10008</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44">
+        <v>-1</v>
+      </c>
+      <c r="E44">
+        <v>600</v>
+      </c>
+      <c r="F44" t="s">
+        <v>54</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H44" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I44" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B45" s="16">
+        <v>10009</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45">
+        <v>-1</v>
+      </c>
+      <c r="E45">
+        <v>600</v>
+      </c>
+      <c r="F45" t="s">
+        <v>54</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H45" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I45" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B46" s="16">
+        <v>10010</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46">
+        <v>-1</v>
+      </c>
+      <c r="E46">
+        <v>600</v>
+      </c>
+      <c r="F46" t="s">
+        <v>54</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H46" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I46" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B47" s="16">
+        <v>10011</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47">
+        <v>-1</v>
+      </c>
+      <c r="E47">
+        <v>600</v>
+      </c>
+      <c r="F47" t="s">
+        <v>54</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H47" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I47" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B48" s="16">
+        <v>10012</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48">
+        <v>-1</v>
+      </c>
+      <c r="E48">
+        <v>600</v>
+      </c>
+      <c r="F48" t="s">
+        <v>54</v>
+      </c>
+      <c r="G48" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H48" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I48" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B49" s="16">
+        <v>10013</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49">
+        <v>-1</v>
+      </c>
+      <c r="E49">
+        <v>600</v>
+      </c>
+      <c r="F49" t="s">
+        <v>54</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H49" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I49" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B50" s="16">
+        <v>10014</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50">
+        <v>-1</v>
+      </c>
+      <c r="E50">
+        <v>600</v>
+      </c>
+      <c r="F50" t="s">
+        <v>54</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H50" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I50" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B51" s="16">
+        <v>10015</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51">
+        <v>-1</v>
+      </c>
+      <c r="E51">
+        <v>600</v>
+      </c>
+      <c r="F51" t="s">
+        <v>54</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H51" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I51" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B52" s="16">
+        <v>10016</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D52">
+        <v>-1</v>
+      </c>
+      <c r="E52">
+        <v>600</v>
+      </c>
+      <c r="F52" t="s">
+        <v>54</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H52" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I52" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B53" s="16">
+        <v>10017</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53">
+        <v>-1</v>
+      </c>
+      <c r="E53">
+        <v>600</v>
+      </c>
+      <c r="F53" t="s">
+        <v>54</v>
+      </c>
+      <c r="G53" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H53" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I53" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B54" s="16">
+        <v>10018</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54">
+        <v>-1</v>
+      </c>
+      <c r="E54">
+        <v>600</v>
+      </c>
+      <c r="F54" t="s">
+        <v>54</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H54" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I54" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B55" s="16">
+        <v>10019</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55">
+        <v>-1</v>
+      </c>
+      <c r="E55">
+        <v>600</v>
+      </c>
+      <c r="F55" t="s">
+        <v>54</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H55" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I55" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B56" s="16">
+        <v>10020</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56">
+        <v>-1</v>
+      </c>
+      <c r="E56">
+        <v>600</v>
+      </c>
+      <c r="F56" t="s">
+        <v>54</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H56" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I56" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B57" s="16">
+        <v>10021</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D57">
+        <v>-1</v>
+      </c>
+      <c r="E57">
+        <v>600</v>
+      </c>
+      <c r="F57" t="s">
+        <v>54</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H57" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I57" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B58" s="16">
+        <v>10022</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D58">
+        <v>-1</v>
+      </c>
+      <c r="E58">
+        <v>600</v>
+      </c>
+      <c r="F58" t="s">
+        <v>54</v>
+      </c>
+      <c r="G58" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H58" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I58" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B59" s="16">
+        <v>10023</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D59">
+        <v>-1</v>
+      </c>
+      <c r="E59">
+        <v>600</v>
+      </c>
+      <c r="F59" t="s">
+        <v>54</v>
+      </c>
+      <c r="G59" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H59" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I59" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B60" s="16">
+        <v>10024</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D60" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E60" s="16">
         <v>800</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F60" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="G22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" s="5" t="s">
+      <c r="G60" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H60" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I60" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="K22">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" ht="16.5" spans="2:11">
-      <c r="B23">
-        <v>10007</v>
-      </c>
-      <c r="C23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23">
-        <v>-1</v>
-      </c>
-      <c r="E23">
+    </row>
+    <row r="61" spans="2:11" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B61" s="16">
+        <v>10025</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D61" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E61" s="16">
         <v>800</v>
       </c>
-      <c r="F23" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23" t="s">
-        <v>55</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K23">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27" s="6"/>
+      <c r="F61" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="H61" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="I61" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="K61" s="16">
+        <v>-1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="O2:P2"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/DataConfig/Datas/items.xlsx
+++ b/DataConfig/Datas/items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="21645" windowHeight="17055"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="130">
   <si>
     <t>##var</t>
   </si>
@@ -112,151 +112,235 @@
     <t>食材</t>
   </si>
   <si>
+    <t>Assets/GameRes/Picture/Food/五花肉.png</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/AllFood/SceneFood/beef.prefab</t>
+  </si>
+  <si>
+    <t>虾</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/AllFood/SceneFood/shrimp.prefab</t>
+  </si>
+  <si>
+    <t>鸡蛋</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Picture/Food/鸡蛋.png</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/AllFood/SceneFood/egg.prefab</t>
+  </si>
+  <si>
+    <t>辣椒</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/AllFood/SceneFood/garlic.prefab</t>
+  </si>
+  <si>
+    <t>土豆</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Picture/Food/土豆.png</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/AllFood/SceneFood/potato.prefab</t>
+  </si>
+  <si>
+    <t>鸡胸肉</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Picture/Food/鸡腿.png</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/AllFood/SceneFood/chickenbreast.prefab</t>
+  </si>
+  <si>
+    <t>羊肉</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/AllFood/SceneFood/mutton.prefab</t>
+  </si>
+  <si>
+    <t>面粉</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/AllFood/SceneFood/flour.prefab</t>
+  </si>
+  <si>
+    <t>蜂蜜</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/AllFood/SceneFood/honey.prefab</t>
+  </si>
+  <si>
+    <t>洋葱</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/AllFood/SceneFood/onion.prefab</t>
+  </si>
+  <si>
+    <t>南瓜</t>
+  </si>
+  <si>
+    <t>白萝卜</t>
+  </si>
+  <si>
+    <t>蘑菇</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Picture/Food/蘑菇.png</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/AllFood/SceneFood/mushroom.prefab</t>
+  </si>
+  <si>
+    <t>胡萝卜</t>
+  </si>
+  <si>
+    <t>草鱼</t>
+  </si>
+  <si>
+    <t>三文鱼</t>
+  </si>
+  <si>
+    <t>章鱼</t>
+  </si>
+  <si>
+    <t>西红柿</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Picture/Food/番茄.png</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/AllFood/SceneFood/tomato.prefab</t>
+  </si>
+  <si>
+    <t>黄瓜</t>
+  </si>
+  <si>
+    <t>小青菜</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Picture/Food/小青菜.png</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/AllFood/SceneFood/greens.prefab</t>
+  </si>
+  <si>
+    <t>白菜</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Picture/Food/大白菜.png</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/AllFood/SceneFood/cabbage.prefab</t>
+  </si>
+  <si>
+    <t>酸菜</t>
+  </si>
+  <si>
+    <t>米饭</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/AllFood/SceneFood/rice.prefab</t>
+  </si>
+  <si>
+    <t>面条</t>
+  </si>
+  <si>
+    <t>茄子</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Picture/Food/茄子.png</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/AllFood/SceneFood/eggplant.prefab</t>
+  </si>
+  <si>
+    <t>牛奶</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/AllFood/SceneFood/milk.prefab</t>
+  </si>
+  <si>
+    <t>猪肉</t>
+  </si>
+  <si>
+    <t>人们圈养的家猪肉，较为常见</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/AllFood/SceneFood/pork.prefab</t>
+  </si>
+  <si>
+    <t>粉丝</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/AllFood/SceneFood/vermicelli.prefab</t>
+  </si>
+  <si>
+    <t>扇贝</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/AllFood/SceneFood/shell.prefab</t>
+  </si>
+  <si>
+    <t>玉米</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/AllFood/SceneFood/corn.prefab</t>
+  </si>
+  <si>
+    <t>芝麻</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/AllFood/SceneFood/sesame.prefab</t>
+  </si>
+  <si>
+    <t>桂花糖</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/AllFood/SceneFood/guihuasugar.prefab</t>
+  </si>
+  <si>
+    <t>甜酒</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/AllFood/FryFood/garlic.prefab</t>
+  </si>
+  <si>
+    <t>蒸蛋</t>
+  </si>
+  <si>
+    <t>菜谱</t>
+  </si>
+  <si>
+    <t>蒸鸡蛋有很好的营养，味道也很美味，比豆腐脑还嫩滑，很多人家里经常做蒸鸡蛋吃，蒸鸡蛋做法也非常简单快速。</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Picture/Food/grey.png</t>
+  </si>
+  <si>
+    <t>炒虾</t>
+  </si>
+  <si>
     <t>Assets/GameRes/Picture/Food/blue.png</t>
   </si>
   <si>
-    <t>Assets/GameRes/Prefabs/AllFood/FryFood/cauliflower.prefab</t>
-  </si>
-  <si>
-    <t>虾</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/Picture/Food/grey.png</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/Prefabs/AllFood/FryFood/garlic.prefab</t>
-  </si>
-  <si>
-    <t>鸡蛋</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/Prefabs/AllFood/FryFood/onion.prefab</t>
-  </si>
-  <si>
-    <t>辣椒</t>
+    <t>炸鸡柳</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Picture/Food/green.png</t>
+  </si>
+  <si>
+    <t>煮牛肉</t>
+  </si>
+  <si>
+    <t>烤土豆</t>
   </si>
   <si>
     <t>Assets/GameRes/Picture/Food/maco.png</t>
-  </si>
-  <si>
-    <t>土豆</t>
-  </si>
-  <si>
-    <t>鸡胸肉</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/Picture/Food/white.png</t>
-  </si>
-  <si>
-    <t>羊肉</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/Prefabs/AllFood/Barbecue/RoastFood.prefab</t>
-  </si>
-  <si>
-    <t>面粉</t>
-  </si>
-  <si>
-    <t>蜂蜜</t>
-  </si>
-  <si>
-    <t>洋葱</t>
-  </si>
-  <si>
-    <t>南瓜</t>
-  </si>
-  <si>
-    <t>白萝卜</t>
-  </si>
-  <si>
-    <t>蘑菇</t>
-  </si>
-  <si>
-    <t>胡萝卜</t>
-  </si>
-  <si>
-    <t>草鱼</t>
-  </si>
-  <si>
-    <t>三文鱼</t>
-  </si>
-  <si>
-    <t>章鱼</t>
-  </si>
-  <si>
-    <t>西红柿</t>
-  </si>
-  <si>
-    <t>黄瓜</t>
-  </si>
-  <si>
-    <t>小青菜</t>
-  </si>
-  <si>
-    <t>白菜</t>
-  </si>
-  <si>
-    <t>酸菜</t>
-  </si>
-  <si>
-    <t>米饭</t>
-  </si>
-  <si>
-    <t>面条</t>
-  </si>
-  <si>
-    <t>茄子</t>
-  </si>
-  <si>
-    <t>牛奶</t>
-  </si>
-  <si>
-    <t>猪肉</t>
-  </si>
-  <si>
-    <t>人们圈养的家猪肉，较为常见</t>
-  </si>
-  <si>
-    <t>粉丝</t>
-  </si>
-  <si>
-    <t>扇贝</t>
-  </si>
-  <si>
-    <t>玉米</t>
-  </si>
-  <si>
-    <t>芝麻</t>
-  </si>
-  <si>
-    <t>桂花糖</t>
-  </si>
-  <si>
-    <t>甜酒</t>
-  </si>
-  <si>
-    <t>蒸蛋</t>
-  </si>
-  <si>
-    <t>菜谱</t>
-  </si>
-  <si>
-    <t>蒸鸡蛋有很好的营养，味道也很美味，比豆腐脑还嫩滑，很多人家里经常做蒸鸡蛋吃，蒸鸡蛋做法也非常简单快速。</t>
-  </si>
-  <si>
-    <t>炒虾</t>
-  </si>
-  <si>
-    <t>炸鸡柳</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/Picture/Food/green.png</t>
-  </si>
-  <si>
-    <t>煮牛肉</t>
-  </si>
-  <si>
-    <t>烤土豆</t>
   </si>
   <si>
     <t>红烧肉</t>
@@ -332,7 +416,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,19 +441,6 @@
       <color rgb="FF9C0006"/>
       <name val="微软雅黑 Light"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑 Light"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -516,12 +587,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -875,173 +952,180 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="22" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="22" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="23" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="23" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="23" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="23" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="23" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1365,139 +1449,139 @@
   <sheetPr/>
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="7.6" customWidth="1"/>
     <col min="4" max="4" width="7.625" customWidth="1"/>
     <col min="5" max="5" width="9.375" customWidth="1"/>
     <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="7" width="31.75" customWidth="1"/>
-    <col min="8" max="8" width="37.75" customWidth="1"/>
-    <col min="9" max="9" width="51.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="26.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.125" customWidth="1"/>
+    <col min="8" max="8" width="38.4666666666667" customWidth="1"/>
+    <col min="9" max="9" width="51.375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="26.875" style="3" customWidth="1"/>
     <col min="11" max="11" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:16">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="10"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="11"/>
     </row>
     <row r="2" ht="16.5" spans="1:16">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="15"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="16"/>
     </row>
     <row r="3" ht="16.5" spans="1:16">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="8"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="9"/>
     </row>
     <row r="4" ht="16.5" spans="1:10">
-      <c r="A4" s="5"/>
+      <c r="A4" s="2"/>
       <c r="B4">
         <v>1</v>
       </c>
@@ -1516,843 +1600,862 @@
       <c r="G4" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="17"/>
+      <c r="J4" s="18"/>
     </row>
     <row r="5" ht="16.5" spans="2:10">
-      <c r="B5" s="5">
+      <c r="B5" s="2">
         <v>1001</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D5">
         <v>10</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="2">
         <v>8</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="17"/>
-    </row>
-    <row r="6" ht="16.5" spans="1:10">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5">
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="16.5" spans="1:10">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6">
         <v>1002</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>11</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="6">
         <v>10</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:10">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2">
+        <v>1003</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="J6" s="17"/>
-    </row>
-    <row r="7" ht="16.5" spans="1:10">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5">
-        <v>1003</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="D7">
         <v>12</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="2">
         <v>7</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="16.5" spans="1:10">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6">
+        <v>1004</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="1">
+        <v>13</v>
+      </c>
+      <c r="E8" s="6">
+        <v>6</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="17"/>
-    </row>
-    <row r="8" ht="16.5" spans="1:10">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5">
-        <v>1004</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8">
-        <v>13</v>
-      </c>
-      <c r="E8" s="5">
-        <v>6</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="17"/>
+      <c r="J8" s="19"/>
     </row>
     <row r="9" ht="16.5" spans="1:10">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2">
         <v>1005</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D9">
         <v>14</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="2">
         <v>5</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="10" ht="16.5" spans="1:10">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5">
+      <c r="H9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="18"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="16.5" spans="1:10">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6">
         <v>1006</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10">
+      <c r="C10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="1">
         <v>15</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="6">
         <v>10</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="17"/>
-    </row>
-    <row r="11" ht="16.5" spans="2:9">
-      <c r="B11" s="5">
+      <c r="G10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="16.5" spans="2:10">
+      <c r="B11" s="6">
         <v>1007</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="1">
         <v>30</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>10</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" ht="16.5" spans="2:9">
-      <c r="B12" s="5">
+      <c r="G11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="16.5" spans="2:10">
+      <c r="B12" s="6">
         <v>1008</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="1">
         <v>10</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>8</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" ht="16.5" spans="2:9">
-      <c r="B13" s="5">
+      <c r="G12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="16.5" spans="2:10">
+      <c r="B13" s="6">
         <v>1009</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13">
+      <c r="C13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="1">
         <v>20</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>15</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" ht="16.5" spans="2:9">
-      <c r="B14" s="1">
+      <c r="G13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="20"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="16.5" spans="2:10">
+      <c r="B14" s="6">
         <v>1010</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14">
+      <c r="C14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="1">
         <v>10</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="6">
         <v>5</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" ht="16.5" spans="2:9">
-      <c r="B15" s="1">
+      <c r="G14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="20"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="16.5" spans="2:10">
+      <c r="B15" s="6">
         <v>1011</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15">
+      <c r="C15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="1">
         <v>10</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="6">
         <v>5</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" ht="16.5" spans="2:9">
-      <c r="B16" s="1">
+      <c r="G15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" s="20"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="16.5" spans="2:10">
+      <c r="B16" s="6">
         <v>1012</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16">
+      <c r="C16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="1">
         <v>10</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="6">
         <v>5</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="G16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="20"/>
     </row>
     <row r="17" ht="16.5" spans="2:9">
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>1013</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>51</v>
+      <c r="C17" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="D17">
         <v>10</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>5</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" ht="16.5" spans="2:9">
-      <c r="B18" s="1">
+      <c r="G17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="16.5" spans="2:10">
+      <c r="B18" s="6">
         <v>1014</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18">
+      <c r="C18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="1">
         <v>10</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="6">
         <v>5</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" ht="16.5" spans="2:9">
-      <c r="B19" s="1">
+      <c r="G18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" s="20"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="16.5" spans="2:10">
+      <c r="B19" s="6">
         <v>1015</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19">
+      <c r="C19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="1">
         <v>10</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="6">
         <v>5</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" ht="16.5" spans="2:9">
-      <c r="B20" s="1">
+      <c r="J19" s="20"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="16.5" spans="2:10">
+      <c r="B20" s="6">
         <v>1016</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20">
+      <c r="C20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="1">
         <v>10</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="6">
         <v>5</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="G20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J20" s="20"/>
     </row>
     <row r="21" ht="16.5" spans="2:9">
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>1017</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>56</v>
+      <c r="C21" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="D21">
         <v>10</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>5</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" ht="16.5" spans="2:9">
-      <c r="B22" s="1">
+      <c r="G21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="16.5" spans="2:10">
+      <c r="B22" s="6">
         <v>1018</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22">
+      <c r="C22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="1">
         <v>10</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="6">
         <v>5</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="G22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J22" s="20"/>
     </row>
     <row r="23" ht="16.5" spans="2:9">
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>1019</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>58</v>
+      <c r="C23" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="D23">
         <v>10</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
         <v>5</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>38</v>
+      <c r="G23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="24" ht="16.5" spans="2:9">
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>1020</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>59</v>
+      <c r="C24" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="D24">
         <v>10</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
         <v>5</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" ht="16.5" spans="2:9">
-      <c r="B25" s="1">
+      <c r="G24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="16.5" spans="2:10">
+      <c r="B25" s="6">
         <v>1021</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25">
+      <c r="C25" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="1">
         <v>10</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="6">
         <v>5</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" ht="16.5" spans="2:9">
-      <c r="B26" s="1">
+      <c r="G25" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="16.5" spans="2:10">
+      <c r="B26" s="6">
         <v>1022</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26">
+      <c r="C26" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="1">
         <v>10</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="6">
         <v>5</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" ht="16.5" spans="2:9">
-      <c r="B27" s="1">
+      <c r="G26" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J26" s="20"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="16.5" spans="2:10">
+      <c r="B27" s="6">
         <v>1023</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27">
+      <c r="C27" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="1">
         <v>10</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="6">
         <v>5</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="G27" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J27" s="20"/>
     </row>
     <row r="28" ht="16.5" spans="2:9">
-      <c r="B28" s="1">
+      <c r="B28" s="2">
         <v>1024</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>63</v>
+      <c r="C28" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="D28">
         <v>10</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="2">
         <v>5</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" ht="16.5" spans="2:9">
-      <c r="B29" s="1">
+      <c r="G28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="16.5" spans="2:10">
+      <c r="B29" s="6">
         <v>1025</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29">
+      <c r="C29" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="1">
         <v>10</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="6">
         <v>5</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="G29" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J29" s="20"/>
     </row>
     <row r="30" ht="16.5" spans="2:9">
-      <c r="B30" s="1">
+      <c r="B30" s="2">
         <v>1026</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>65</v>
+      <c r="C30" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="D30">
         <v>10</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="2">
         <v>5</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" ht="16.5" spans="2:9">
-      <c r="B31" s="1">
+      <c r="G30" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="16.5" spans="2:10">
+      <c r="B31" s="6">
         <v>1027</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31">
+      <c r="C31" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="1">
         <v>10</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="6">
         <v>5</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" ht="16.5" spans="2:9">
-      <c r="B32" s="1">
+      <c r="G31" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="16.5" spans="2:10">
+      <c r="B32" s="6">
         <v>1028</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32">
+      <c r="C32" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="1">
         <v>10</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="6">
         <v>5</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" ht="16.5" spans="2:9">
-      <c r="B33" s="1">
+      <c r="G32" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="16.5" spans="2:10">
+      <c r="B33" s="6">
         <v>1029</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33">
+      <c r="C33" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="1">
         <v>10</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="6">
         <v>5</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" ht="16.5" spans="2:11">
-      <c r="B34" s="5">
+      <c r="G33" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="16.5" spans="2:11">
+      <c r="B34" s="6">
         <v>1030</v>
       </c>
-      <c r="C34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34">
+      <c r="C34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="1">
         <v>20</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="1">
         <v>15</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G34" t="s">
-        <v>70</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K34">
+      <c r="G34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J34" s="20"/>
+      <c r="K34" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="2:11">
-      <c r="B35" s="5">
+    <row r="35" s="1" customFormat="1" ht="16.5" spans="2:11">
+      <c r="B35" s="6">
         <v>1031</v>
       </c>
-      <c r="C35" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35">
+      <c r="C35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="1">
         <v>25</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="1">
         <v>16</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G35" t="s">
-        <v>71</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K35">
+      <c r="G35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="J35" s="20"/>
+      <c r="K35" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="36" ht="16.5" spans="2:11">
-      <c r="B36" s="5">
+      <c r="B36" s="2">
         <v>1032</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="D36">
         <v>15</v>
@@ -2364,24 +2467,24 @@
         <v>31</v>
       </c>
       <c r="G36" t="s">
-        <v>72</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>36</v>
+        <v>96</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="K36">
         <v>1</v>
       </c>
     </row>
     <row r="37" ht="16.5" spans="2:9">
-      <c r="B37" s="1">
+      <c r="B37" s="2">
         <v>10001</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>73</v>
+      <c r="C37" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="D37">
         <v>-1</v>
@@ -2390,24 +2493,24 @@
         <v>200</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="G37" t="s">
-        <v>75</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="38" ht="16.5" spans="2:9">
-      <c r="B38" s="1">
+      <c r="B38" s="2">
         <v>10002</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>76</v>
+      <c r="C38" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="D38">
         <v>-1</v>
@@ -2416,24 +2519,24 @@
         <v>300</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="G38" t="s">
-        <v>75</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="39" ht="16.5" spans="2:9">
-      <c r="B39" s="1">
+      <c r="B39" s="2">
         <v>10003</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>77</v>
+      <c r="C39" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="D39">
         <v>-1</v>
@@ -2442,24 +2545,24 @@
         <v>400</v>
       </c>
       <c r="F39" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="G39" t="s">
-        <v>75</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I39" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="40" ht="16.5" spans="2:9">
-      <c r="B40" s="1">
+      <c r="B40" s="2">
         <v>10004</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>79</v>
+      <c r="C40" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="D40">
         <v>-1</v>
@@ -2468,24 +2571,24 @@
         <v>500</v>
       </c>
       <c r="F40" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="G40" t="s">
-        <v>75</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I40" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I40" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="41" ht="16.5" spans="2:9">
-      <c r="B41" s="1">
+      <c r="B41" s="2">
         <v>10005</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>80</v>
+      <c r="C41" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="D41">
         <v>-1</v>
@@ -2494,24 +2597,24 @@
         <v>600</v>
       </c>
       <c r="F41" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="G41" t="s">
-        <v>75</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I41" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="42" ht="16.5" spans="2:9">
-      <c r="B42" s="1">
+      <c r="B42" s="2">
         <v>10006</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>81</v>
+      <c r="C42" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="D42">
         <v>-1</v>
@@ -2520,24 +2623,24 @@
         <v>600</v>
       </c>
       <c r="F42" t="s">
-        <v>74</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I42" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="43" ht="16.5" spans="2:9">
-      <c r="B43" s="1">
+      <c r="B43" s="2">
         <v>10007</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>83</v>
+      <c r="C43" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="D43">
         <v>-1</v>
@@ -2546,24 +2649,24 @@
         <v>600</v>
       </c>
       <c r="F43" t="s">
-        <v>74</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I43" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I43" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="44" ht="16.5" spans="2:9">
-      <c r="B44" s="1">
+      <c r="B44" s="2">
         <v>10008</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>84</v>
+      <c r="C44" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="D44">
         <v>-1</v>
@@ -2572,24 +2675,24 @@
         <v>600</v>
       </c>
       <c r="F44" t="s">
-        <v>74</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I44" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I44" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="45" ht="16.5" spans="2:9">
-      <c r="B45" s="1">
+      <c r="B45" s="2">
         <v>10009</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>85</v>
+      <c r="C45" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="D45">
         <v>-1</v>
@@ -2598,24 +2701,24 @@
         <v>600</v>
       </c>
       <c r="F45" t="s">
-        <v>74</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I45" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I45" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="46" ht="16.5" spans="2:9">
-      <c r="B46" s="1">
+      <c r="B46" s="2">
         <v>10010</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>86</v>
+      <c r="C46" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="D46">
         <v>-1</v>
@@ -2624,24 +2727,24 @@
         <v>600</v>
       </c>
       <c r="F46" t="s">
-        <v>74</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I46" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="47" ht="16.5" spans="2:9">
-      <c r="B47" s="1">
+      <c r="B47" s="2">
         <v>10011</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>87</v>
+      <c r="C47" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="D47">
         <v>-1</v>
@@ -2650,24 +2753,24 @@
         <v>600</v>
       </c>
       <c r="F47" t="s">
-        <v>74</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I47" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="48" ht="16.5" spans="2:9">
-      <c r="B48" s="1">
+      <c r="B48" s="2">
         <v>10012</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>88</v>
+      <c r="C48" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="D48">
         <v>-1</v>
@@ -2676,24 +2779,24 @@
         <v>600</v>
       </c>
       <c r="F48" t="s">
-        <v>74</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I48" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I48" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="49" ht="16.5" spans="2:9">
-      <c r="B49" s="1">
+      <c r="B49" s="2">
         <v>10013</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>89</v>
+      <c r="C49" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="D49">
         <v>-1</v>
@@ -2702,24 +2805,24 @@
         <v>600</v>
       </c>
       <c r="F49" t="s">
-        <v>74</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I49" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I49" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="50" ht="16.5" spans="2:9">
-      <c r="B50" s="1">
+      <c r="B50" s="2">
         <v>10014</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>90</v>
+      <c r="C50" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="D50">
         <v>-1</v>
@@ -2728,24 +2831,24 @@
         <v>600</v>
       </c>
       <c r="F50" t="s">
-        <v>74</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I50" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I50" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="51" ht="16.5" spans="2:9">
-      <c r="B51" s="1">
+      <c r="B51" s="2">
         <v>10015</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>91</v>
+      <c r="C51" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="D51">
         <v>-1</v>
@@ -2754,24 +2857,24 @@
         <v>600</v>
       </c>
       <c r="F51" t="s">
-        <v>74</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I51" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I51" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="52" ht="16.5" spans="2:9">
-      <c r="B52" s="1">
+      <c r="B52" s="2">
         <v>10016</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>92</v>
+      <c r="C52" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="D52">
         <v>-1</v>
@@ -2780,24 +2883,24 @@
         <v>600</v>
       </c>
       <c r="F52" t="s">
-        <v>74</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I52" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I52" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="53" ht="16.5" spans="2:9">
-      <c r="B53" s="1">
+      <c r="B53" s="2">
         <v>10017</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>93</v>
+      <c r="C53" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="D53">
         <v>-1</v>
@@ -2806,24 +2909,24 @@
         <v>600</v>
       </c>
       <c r="F53" t="s">
-        <v>74</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I53" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I53" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="54" ht="16.5" spans="2:9">
-      <c r="B54" s="1">
+      <c r="B54" s="2">
         <v>10018</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>94</v>
+      <c r="C54" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="D54">
         <v>-1</v>
@@ -2832,24 +2935,24 @@
         <v>600</v>
       </c>
       <c r="F54" t="s">
-        <v>74</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I54" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I54" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="55" ht="16.5" spans="2:9">
-      <c r="B55" s="1">
+      <c r="B55" s="2">
         <v>10019</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>95</v>
+      <c r="C55" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="D55">
         <v>-1</v>
@@ -2858,24 +2961,24 @@
         <v>600</v>
       </c>
       <c r="F55" t="s">
-        <v>74</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I55" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I55" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="56" ht="16.5" spans="2:9">
-      <c r="B56" s="1">
+      <c r="B56" s="2">
         <v>10020</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>96</v>
+      <c r="C56" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="D56">
         <v>-1</v>
@@ -2884,24 +2987,24 @@
         <v>600</v>
       </c>
       <c r="F56" t="s">
-        <v>74</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I56" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I56" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="57" ht="16.5" spans="2:9">
-      <c r="B57" s="1">
+      <c r="B57" s="2">
         <v>10021</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>97</v>
+      <c r="C57" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="D57">
         <v>-1</v>
@@ -2910,24 +3013,24 @@
         <v>600</v>
       </c>
       <c r="F57" t="s">
-        <v>74</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I57" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I57" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="58" ht="16.5" spans="2:9">
-      <c r="B58" s="1">
+      <c r="B58" s="2">
         <v>10022</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>98</v>
+      <c r="C58" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="D58">
         <v>-1</v>
@@ -2936,24 +3039,24 @@
         <v>600</v>
       </c>
       <c r="F58" t="s">
-        <v>74</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I58" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I58" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="59" ht="16.5" spans="2:9">
-      <c r="B59" s="1">
+      <c r="B59" s="2">
         <v>10023</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>99</v>
+      <c r="C59" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="D59">
         <v>-1</v>
@@ -2962,70 +3065,70 @@
         <v>600</v>
       </c>
       <c r="F59" t="s">
-        <v>74</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I59" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I59" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" ht="16.5" spans="2:9">
-      <c r="B60" s="1">
+    <row r="60" s="2" customFormat="1" ht="16.5" spans="2:9">
+      <c r="B60" s="2">
         <v>10024</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D60" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E60" s="2">
+        <v>800</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" s="2" customFormat="1" ht="16.5" spans="2:11">
+      <c r="B61" s="2">
+        <v>10025</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D61" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E61" s="2">
+        <v>800</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D60" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E60" s="1">
-        <v>800</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I60" s="1" t="s">
+      <c r="H61" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I61" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="61" s="1" customFormat="1" ht="16.5" spans="2:11">
-      <c r="B61" s="1">
-        <v>10025</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D61" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E61" s="1">
-        <v>800</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K61" s="1">
+      <c r="K61" s="2">
         <v>-1</v>
       </c>
     </row>

--- a/DataConfig/Datas/items.xlsx
+++ b/DataConfig/Datas/items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17745" windowHeight="17655"/>
+    <workbookView windowWidth="18645" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="164">
   <si>
     <t>##type</t>
   </si>
@@ -301,12 +301,6 @@
     <t>Assets/GameRes/Prefabs/AllFood/SceneFood/2014.prefab</t>
   </si>
   <si>
-    <t>玉米</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/Prefabs/AllFood/SceneFood/corn.prefab</t>
-  </si>
-  <si>
     <t>毛豆</t>
   </si>
   <si>
@@ -512,9 +506,6 @@
   </si>
   <si>
     <t>蒸蛋</t>
-  </si>
-  <si>
-    <t>桂花酒酿元宵</t>
   </si>
 </sst>
 </file>
@@ -1553,10 +1544,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P73"/>
+  <dimension ref="A1:P71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47:C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2444,39 +2435,39 @@
       </c>
       <c r="J31" s="27"/>
     </row>
-    <row r="32" s="6" customFormat="1" ht="16.5" spans="2:10">
-      <c r="B32" s="15">
+    <row r="32" s="5" customFormat="1" ht="16.5" spans="2:10">
+      <c r="B32" s="4">
         <v>2015</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="5">
         <v>10</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="4">
         <v>5</v>
       </c>
-      <c r="F32" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32" s="15" t="s">
+      <c r="F32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H32" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I32" s="15" t="s">
+      <c r="H32" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J32" s="26"/>
+      <c r="I32" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J32" s="27"/>
     </row>
     <row r="33" s="5" customFormat="1" ht="16.5" spans="2:10">
       <c r="B33" s="4">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="5">
         <v>10</v>
@@ -2488,212 +2479,212 @@
         <v>31</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J33" s="27"/>
     </row>
-    <row r="34" s="5" customFormat="1" ht="16.5" spans="2:10">
-      <c r="B34" s="4">
-        <v>2016</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" s="5">
+    <row r="34" s="6" customFormat="1" ht="16.5" spans="1:10">
+      <c r="A34" s="12"/>
+      <c r="B34" s="11">
+        <v>3001</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="12">
         <v>10</v>
       </c>
-      <c r="E34" s="4">
-        <v>5</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H34" s="4" t="s">
+      <c r="E34" s="11">
+        <v>8</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="H34" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="J34" s="27"/>
+      <c r="J34" s="23"/>
     </row>
     <row r="35" s="6" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A35" s="12"/>
-      <c r="B35" s="11">
-        <v>3001</v>
-      </c>
-      <c r="C35" s="11" t="s">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15">
+        <v>3002</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="6">
+        <v>15</v>
+      </c>
+      <c r="E35" s="15">
         <v>10</v>
       </c>
-      <c r="E35" s="11">
-        <v>8</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G35" s="11" t="s">
+      <c r="F35" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="H35" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I35" s="11" t="s">
+      <c r="I35" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="J35" s="23"/>
-    </row>
-    <row r="36" s="6" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15">
-        <v>3002</v>
-      </c>
-      <c r="C36" s="15" t="s">
+      <c r="J35" s="28"/>
+    </row>
+    <row r="36" s="5" customFormat="1" ht="16.5" spans="1:10">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4">
+        <v>3003</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="5">
         <v>15</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="4">
         <v>10</v>
       </c>
-      <c r="F36" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I36" s="15" t="s">
+      <c r="F36" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J36" s="28"/>
-    </row>
-    <row r="37" s="5" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A37" s="4"/>
+      <c r="H36" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J36" s="29"/>
+    </row>
+    <row r="37" s="5" customFormat="1" ht="16.5" spans="2:10">
       <c r="B37" s="4">
-        <v>3003</v>
+        <v>3004</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D37" s="5">
-        <v>15</v>
-      </c>
-      <c r="E37" s="4">
+        <v>30</v>
+      </c>
+      <c r="E37" s="5">
         <v>10</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>108</v>
+      <c r="G37" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="J37" s="29"/>
+        <v>111</v>
+      </c>
+      <c r="J37" s="27"/>
     </row>
     <row r="38" s="5" customFormat="1" ht="16.5" spans="2:10">
       <c r="B38" s="4">
-        <v>3004</v>
+        <v>3005</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D38" s="5">
-        <v>30</v>
-      </c>
-      <c r="E38" s="5">
         <v>10</v>
       </c>
+      <c r="E38" s="4">
+        <v>5</v>
+      </c>
       <c r="F38" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G38" s="5" t="s">
-        <v>111</v>
+      <c r="G38" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J38" s="27"/>
     </row>
-    <row r="39" s="5" customFormat="1" ht="16.5" spans="2:10">
-      <c r="B39" s="4">
-        <v>3005</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D39" s="5">
+    <row r="39" s="6" customFormat="1" ht="16.5" spans="1:10">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11">
+        <v>4001</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="12">
+        <v>11</v>
+      </c>
+      <c r="E39" s="11">
         <v>10</v>
       </c>
-      <c r="E39" s="4">
+      <c r="F39" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="J39" s="23"/>
+    </row>
+    <row r="40" s="6" customFormat="1" ht="16.5" spans="2:10">
+      <c r="B40" s="15">
+        <v>4002</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" s="6">
+        <v>10</v>
+      </c>
+      <c r="E40" s="15">
         <v>5</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="J39" s="27"/>
-    </row>
-    <row r="40" s="6" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11">
-        <v>4001</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D40" s="12">
-        <v>11</v>
-      </c>
-      <c r="E40" s="11">
-        <v>10</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="H40" s="11" t="s">
+      <c r="F40" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H40" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I40" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="J40" s="23"/>
+      <c r="I40" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J40" s="26"/>
     </row>
     <row r="41" s="6" customFormat="1" ht="16.5" spans="2:10">
       <c r="B41" s="15">
-        <v>4002</v>
+        <v>4003</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>120</v>
@@ -2708,7 +2699,7 @@
         <v>31</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H41" s="15" t="s">
         <v>28</v>
@@ -2720,10 +2711,10 @@
     </row>
     <row r="42" s="6" customFormat="1" ht="16.5" spans="2:10">
       <c r="B42" s="15">
-        <v>4003</v>
+        <v>4004</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D42" s="6">
         <v>10</v>
@@ -2735,102 +2726,102 @@
         <v>31</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H42" s="15" t="s">
         <v>28</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="J42" s="26"/>
     </row>
-    <row r="43" s="6" customFormat="1" ht="16.5" spans="2:10">
-      <c r="B43" s="15">
-        <v>4004</v>
-      </c>
-      <c r="C43" s="15" t="s">
+    <row r="43" s="5" customFormat="1" ht="16.5" spans="2:10">
+      <c r="B43" s="4">
+        <v>10001</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="5">
         <v>10</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E43" s="4">
         <v>5</v>
       </c>
-      <c r="F43" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G43" s="15" t="s">
+      <c r="F43" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="H43" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I43" s="15" t="s">
+      <c r="H43" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J43" s="27"/>
+    </row>
+    <row r="44" s="6" customFormat="1" ht="16.5" spans="1:11">
+      <c r="A44"/>
+      <c r="B44" s="16">
+        <v>10002</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44">
+        <v>-1</v>
+      </c>
+      <c r="E44">
+        <v>300</v>
+      </c>
+      <c r="F44" t="s">
         <v>124</v>
       </c>
-      <c r="J43" s="26"/>
-    </row>
-    <row r="44" s="5" customFormat="1" ht="16.5" spans="2:10">
-      <c r="B44" s="4">
-        <v>10001</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D44" s="5">
-        <v>10</v>
-      </c>
-      <c r="E44" s="4">
-        <v>5</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H44" s="4" t="s">
+      <c r="G44" t="s">
         <v>127</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="H44" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="I44" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="J44" s="27"/>
-    </row>
-    <row r="45" s="6" customFormat="1" ht="16.5" spans="1:11">
-      <c r="A45"/>
-      <c r="B45" s="16">
-        <v>10002</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="D45">
+      <c r="J44" s="7"/>
+      <c r="K44"/>
+    </row>
+    <row r="45" s="5" customFormat="1" ht="16.5" spans="2:10">
+      <c r="B45" s="4">
+        <v>10003</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" s="5">
         <v>-1</v>
       </c>
-      <c r="E45">
-        <v>300</v>
-      </c>
-      <c r="F45" t="s">
-        <v>126</v>
-      </c>
-      <c r="G45" t="s">
-        <v>129</v>
-      </c>
-      <c r="H45" s="16" t="s">
+      <c r="E45" s="5">
+        <v>400</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H45" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="I45" s="16" t="s">
+      <c r="I45" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J45" s="7"/>
-      <c r="K45"/>
+      <c r="J45" s="27"/>
     </row>
     <row r="46" s="5" customFormat="1" ht="16.5" spans="2:10">
       <c r="B46" s="4">
-        <v>10003</v>
+        <v>10004</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>131</v>
@@ -2842,10 +2833,10 @@
         <v>400</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>132</v>
@@ -2855,24 +2846,25 @@
       </c>
       <c r="J46" s="27"/>
     </row>
-    <row r="47" s="5" customFormat="1" ht="16.5" spans="2:10">
+    <row r="47" s="5" customFormat="1" ht="16.5" spans="1:11">
+      <c r="A47" s="4"/>
       <c r="B47" s="4">
-        <v>10004</v>
+        <v>10005</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="4">
         <v>-1</v>
       </c>
-      <c r="E47" s="5">
-        <v>400</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>129</v>
+      <c r="E47" s="4">
+        <v>800</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>134</v>
@@ -2880,27 +2872,27 @@
       <c r="I47" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J47" s="27"/>
-    </row>
-    <row r="48" s="5" customFormat="1" ht="16.5" spans="1:11">
-      <c r="A48" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+    </row>
+    <row r="48" s="5" customFormat="1" ht="16.5" spans="2:10">
       <c r="B48" s="4">
-        <v>10005</v>
+        <v>20001</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="5">
         <v>-1</v>
       </c>
-      <c r="E48" s="4">
-        <v>800</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>135</v>
+      <c r="E48" s="5">
+        <v>400</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>136</v>
@@ -2908,12 +2900,11 @@
       <c r="I48" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
+      <c r="J48" s="27"/>
     </row>
     <row r="49" s="5" customFormat="1" ht="16.5" spans="2:10">
       <c r="B49" s="4">
-        <v>20001</v>
+        <v>20002</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>137</v>
@@ -2922,13 +2913,13 @@
         <v>-1</v>
       </c>
       <c r="E49" s="5">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>138</v>
@@ -2938,39 +2929,38 @@
       </c>
       <c r="J49" s="27"/>
     </row>
-    <row r="50" s="5" customFormat="1" ht="16.5" spans="2:10">
-      <c r="B50" s="4">
-        <v>20002</v>
-      </c>
-      <c r="C50" s="4" t="s">
+    <row r="50" ht="16.5" spans="2:9">
+      <c r="B50" s="15">
+        <v>10008</v>
+      </c>
+      <c r="C50" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50">
         <v>-1</v>
       </c>
-      <c r="E50" s="5">
-        <v>500</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I50" s="4" t="s">
+      <c r="E50">
+        <v>600</v>
+      </c>
+      <c r="F50" t="s">
+        <v>124</v>
+      </c>
+      <c r="G50" t="s">
+        <v>127</v>
+      </c>
+      <c r="H50" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="I50" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="J50" s="27"/>
     </row>
     <row r="51" ht="16.5" spans="2:9">
       <c r="B51" s="15">
-        <v>10008</v>
+        <v>10009</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D51">
         <v>-1</v>
@@ -2979,13 +2969,13 @@
         <v>600</v>
       </c>
       <c r="F51" t="s">
-        <v>126</v>
-      </c>
-      <c r="G51" t="s">
-        <v>129</v>
+        <v>124</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>141</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I51" s="16" t="s">
         <v>29</v>
@@ -2993,7 +2983,7 @@
     </row>
     <row r="52" ht="16.5" spans="2:9">
       <c r="B52" s="15">
-        <v>10009</v>
+        <v>10010</v>
       </c>
       <c r="C52" s="16" t="s">
         <v>142</v>
@@ -3005,13 +2995,13 @@
         <v>600</v>
       </c>
       <c r="F52" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I52" s="16" t="s">
         <v>29</v>
@@ -3019,10 +3009,10 @@
     </row>
     <row r="53" ht="16.5" spans="2:9">
       <c r="B53" s="15">
-        <v>10010</v>
+        <v>10011</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D53">
         <v>-1</v>
@@ -3031,13 +3021,13 @@
         <v>600</v>
       </c>
       <c r="F53" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G53" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H53" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I53" s="16" t="s">
         <v>29</v>
@@ -3045,10 +3035,10 @@
     </row>
     <row r="54" ht="16.5" spans="2:9">
       <c r="B54" s="15">
-        <v>10011</v>
+        <v>10012</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="D54">
         <v>-1</v>
@@ -3057,13 +3047,13 @@
         <v>600</v>
       </c>
       <c r="F54" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I54" s="16" t="s">
         <v>29</v>
@@ -3071,10 +3061,10 @@
     </row>
     <row r="55" ht="16.5" spans="2:9">
       <c r="B55" s="15">
-        <v>10012</v>
+        <v>10013</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="D55">
         <v>-1</v>
@@ -3083,13 +3073,13 @@
         <v>600</v>
       </c>
       <c r="F55" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I55" s="16" t="s">
         <v>29</v>
@@ -3097,10 +3087,10 @@
     </row>
     <row r="56" ht="16.5" spans="2:9">
       <c r="B56" s="15">
-        <v>10013</v>
+        <v>10014</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D56">
         <v>-1</v>
@@ -3109,13 +3099,13 @@
         <v>600</v>
       </c>
       <c r="F56" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I56" s="16" t="s">
         <v>29</v>
@@ -3123,10 +3113,10 @@
     </row>
     <row r="57" ht="16.5" spans="2:9">
       <c r="B57" s="15">
-        <v>10014</v>
+        <v>10015</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D57">
         <v>-1</v>
@@ -3135,13 +3125,13 @@
         <v>600</v>
       </c>
       <c r="F57" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I57" s="16" t="s">
         <v>29</v>
@@ -3149,10 +3139,10 @@
     </row>
     <row r="58" ht="16.5" spans="2:9">
       <c r="B58" s="15">
-        <v>10015</v>
+        <v>10016</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D58">
         <v>-1</v>
@@ -3161,13 +3151,13 @@
         <v>600</v>
       </c>
       <c r="F58" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I58" s="16" t="s">
         <v>29</v>
@@ -3175,10 +3165,10 @@
     </row>
     <row r="59" ht="16.5" spans="2:9">
       <c r="B59" s="15">
-        <v>10016</v>
+        <v>10017</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D59">
         <v>-1</v>
@@ -3187,13 +3177,13 @@
         <v>600</v>
       </c>
       <c r="F59" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G59" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H59" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I59" s="16" t="s">
         <v>29</v>
@@ -3201,10 +3191,10 @@
     </row>
     <row r="60" ht="16.5" spans="2:9">
       <c r="B60" s="15">
-        <v>10017</v>
+        <v>10018</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D60">
         <v>-1</v>
@@ -3213,13 +3203,13 @@
         <v>600</v>
       </c>
       <c r="F60" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G60" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H60" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I60" s="16" t="s">
         <v>29</v>
@@ -3227,10 +3217,10 @@
     </row>
     <row r="61" ht="16.5" spans="2:9">
       <c r="B61" s="15">
-        <v>10018</v>
+        <v>10019</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D61">
         <v>-1</v>
@@ -3239,13 +3229,13 @@
         <v>600</v>
       </c>
       <c r="F61" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G61" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H61" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I61" s="16" t="s">
         <v>29</v>
@@ -3253,10 +3243,10 @@
     </row>
     <row r="62" ht="16.5" spans="2:9">
       <c r="B62" s="15">
-        <v>10019</v>
+        <v>10020</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D62">
         <v>-1</v>
@@ -3265,13 +3255,13 @@
         <v>600</v>
       </c>
       <c r="F62" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G62" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H62" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I62" s="16" t="s">
         <v>29</v>
@@ -3279,10 +3269,10 @@
     </row>
     <row r="63" ht="16.5" spans="2:9">
       <c r="B63" s="15">
-        <v>10020</v>
+        <v>10021</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D63">
         <v>-1</v>
@@ -3291,13 +3281,13 @@
         <v>600</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G63" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H63" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I63" s="16" t="s">
         <v>29</v>
@@ -3305,10 +3295,10 @@
     </row>
     <row r="64" ht="16.5" spans="2:9">
       <c r="B64" s="15">
-        <v>10021</v>
+        <v>10022</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D64">
         <v>-1</v>
@@ -3317,13 +3307,13 @@
         <v>600</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G64" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H64" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I64" s="16" t="s">
         <v>29</v>
@@ -3331,10 +3321,10 @@
     </row>
     <row r="65" ht="16.5" spans="2:9">
       <c r="B65" s="15">
-        <v>10022</v>
+        <v>10023</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D65">
         <v>-1</v>
@@ -3343,13 +3333,13 @@
         <v>600</v>
       </c>
       <c r="F65" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G65" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H65" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I65" s="16" t="s">
         <v>29</v>
@@ -3357,10 +3347,10 @@
     </row>
     <row r="66" ht="16.5" spans="2:9">
       <c r="B66" s="15">
-        <v>10023</v>
+        <v>10024</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D66">
         <v>-1</v>
@@ -3369,13 +3359,13 @@
         <v>600</v>
       </c>
       <c r="F66" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G66" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I66" s="16" t="s">
         <v>29</v>
@@ -3383,10 +3373,10 @@
     </row>
     <row r="67" ht="16.5" spans="2:9">
       <c r="B67" s="15">
-        <v>10024</v>
+        <v>10025</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D67">
         <v>-1</v>
@@ -3395,49 +3385,50 @@
         <v>600</v>
       </c>
       <c r="F67" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I67" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="68" ht="16.5" spans="2:9">
-      <c r="B68" s="15">
-        <v>10025</v>
-      </c>
-      <c r="C68" s="16" t="s">
+    <row r="68" s="5" customFormat="1" ht="16.5" spans="2:10">
+      <c r="B68" s="4">
+        <v>30001</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D68" s="5">
+        <v>-1</v>
+      </c>
+      <c r="E68" s="5">
+        <v>600</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G68" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="H68" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D68">
-        <v>-1</v>
-      </c>
-      <c r="E68">
-        <v>600</v>
-      </c>
-      <c r="F68" t="s">
-        <v>126</v>
-      </c>
-      <c r="G68" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="H68" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="I68" s="16" t="s">
+      <c r="I68" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="J68" s="27"/>
     </row>
     <row r="69" s="5" customFormat="1" ht="16.5" spans="2:10">
-      <c r="B69" s="4">
-        <v>30001</v>
-      </c>
-      <c r="C69" s="4" t="s">
+      <c r="B69" s="5">
+        <v>30002</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>159</v>
       </c>
       <c r="D69" s="5">
@@ -3447,12 +3438,12 @@
         <v>600</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G69" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="H69" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="H69" s="5" t="s">
         <v>160</v>
       </c>
       <c r="I69" s="4" t="s">
@@ -3462,7 +3453,7 @@
     </row>
     <row r="70" s="5" customFormat="1" ht="16.5" spans="2:10">
       <c r="B70" s="5">
-        <v>30002</v>
+        <v>30003</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>161</v>
@@ -3474,10 +3465,10 @@
         <v>600</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H70" s="5" t="s">
         <v>162</v>
@@ -3487,92 +3478,34 @@
       </c>
       <c r="J70" s="27"/>
     </row>
-    <row r="71" s="5" customFormat="1" ht="16.5" spans="2:10">
-      <c r="B71" s="5">
-        <v>30003</v>
-      </c>
-      <c r="C71" s="5" t="s">
+    <row r="71" s="6" customFormat="1" ht="16.5" spans="1:11">
+      <c r="A71"/>
+      <c r="B71" s="16">
+        <v>30004</v>
+      </c>
+      <c r="C71" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71">
         <v>-1</v>
       </c>
-      <c r="E71" s="5">
-        <v>600</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="I71" s="4" t="s">
+      <c r="E71">
+        <v>200</v>
+      </c>
+      <c r="F71" t="s">
+        <v>124</v>
+      </c>
+      <c r="G71" t="s">
+        <v>127</v>
+      </c>
+      <c r="H71" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="I71" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="J71" s="27"/>
-    </row>
-    <row r="72" s="6" customFormat="1" ht="16.5" spans="1:11">
-      <c r="A72"/>
-      <c r="B72" s="16">
-        <v>30004</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="D72">
-        <v>-1</v>
-      </c>
-      <c r="E72">
-        <v>200</v>
-      </c>
-      <c r="F72" t="s">
-        <v>126</v>
-      </c>
-      <c r="G72" t="s">
-        <v>129</v>
-      </c>
-      <c r="H72" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="I72" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J72" s="7"/>
-      <c r="K72"/>
-    </row>
-    <row r="73" ht="16.5" spans="1:11">
-      <c r="A73" s="16"/>
-      <c r="B73" s="16">
-        <v>10025</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="D73" s="16">
-        <v>-1</v>
-      </c>
-      <c r="E73" s="16">
-        <v>800</v>
-      </c>
-      <c r="F73" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="G73" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="H73" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="I73" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J73" s="16"/>
-      <c r="K73" s="16">
-        <v>-1</v>
-      </c>
+      <c r="J71" s="7"/>
+      <c r="K71"/>
     </row>
   </sheetData>
   <sortState ref="A3:K64">

--- a/DataConfig/Datas/items.xlsx
+++ b/DataConfig/Datas/items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18645" windowHeight="12840"/>
+    <workbookView windowWidth="18345" windowHeight="13485"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
@@ -1546,8 +1546,8 @@
   <sheetPr/>
   <dimension ref="A1:P71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47:C47"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="E45" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/DataConfig/Datas/items.xlsx
+++ b/DataConfig/Datas/items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18345" windowHeight="13485"/>
+    <workbookView windowWidth="20205" windowHeight="17055"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="165">
   <si>
     <t>##type</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>Assets/GameRes/Picture/Food/2007.png</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Prefabs/AllFood/SceneFood/2007.prefab</t>
   </si>
   <si>
     <t>西红柿</t>
@@ -1546,8 +1549,8 @@
   <sheetPr/>
   <dimension ref="A1:P71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="E45" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2242,7 +2245,7 @@
         <v>73</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="J24" s="27"/>
     </row>
@@ -2251,7 +2254,7 @@
         <v>2008</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="5">
         <v>10</v>
@@ -2263,13 +2266,13 @@
         <v>31</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J25" s="27"/>
     </row>
@@ -2278,7 +2281,7 @@
         <v>2009</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="5">
         <v>10</v>
@@ -2290,13 +2293,13 @@
         <v>31</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J26" s="27"/>
     </row>
@@ -2305,7 +2308,7 @@
         <v>2010</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="5">
         <v>10</v>
@@ -2317,13 +2320,13 @@
         <v>31</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J27" s="27"/>
     </row>
@@ -2332,7 +2335,7 @@
         <v>2011</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="5">
         <v>10</v>
@@ -2344,13 +2347,13 @@
         <v>31</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J28" s="27"/>
     </row>
@@ -2359,7 +2362,7 @@
         <v>2012</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="5">
         <v>10</v>
@@ -2371,13 +2374,13 @@
         <v>31</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J29" s="27"/>
     </row>
@@ -2386,7 +2389,7 @@
         <v>2013</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="5">
         <v>10</v>
@@ -2398,13 +2401,13 @@
         <v>31</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J30" s="27"/>
     </row>
@@ -2413,7 +2416,7 @@
         <v>2014</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="5">
         <v>10</v>
@@ -2425,13 +2428,13 @@
         <v>31</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J31" s="27"/>
     </row>
@@ -2440,7 +2443,7 @@
         <v>2015</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="5">
         <v>10</v>
@@ -2452,13 +2455,13 @@
         <v>31</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J32" s="27"/>
     </row>
@@ -2467,7 +2470,7 @@
         <v>2016</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="5">
         <v>10</v>
@@ -2479,13 +2482,13 @@
         <v>31</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J33" s="27"/>
     </row>
@@ -2495,7 +2498,7 @@
         <v>3001</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D34" s="12">
         <v>10</v>
@@ -2507,13 +2510,13 @@
         <v>31</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H34" s="11" t="s">
         <v>28</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J34" s="23"/>
     </row>
@@ -2523,7 +2526,7 @@
         <v>3002</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="6">
         <v>15</v>
@@ -2535,13 +2538,13 @@
         <v>31</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H35" s="15" t="s">
         <v>28</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J35" s="28"/>
     </row>
@@ -2551,7 +2554,7 @@
         <v>3003</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D36" s="5">
         <v>15</v>
@@ -2563,13 +2566,13 @@
         <v>31</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J36" s="29"/>
     </row>
@@ -2578,7 +2581,7 @@
         <v>3004</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="5">
         <v>30</v>
@@ -2590,13 +2593,13 @@
         <v>31</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J37" s="27"/>
     </row>
@@ -2605,7 +2608,7 @@
         <v>3005</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" s="5">
         <v>10</v>
@@ -2617,13 +2620,13 @@
         <v>31</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J38" s="27"/>
     </row>
@@ -2633,7 +2636,7 @@
         <v>4001</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="12">
         <v>11</v>
@@ -2645,13 +2648,13 @@
         <v>31</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H39" s="11" t="s">
         <v>28</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J39" s="23"/>
     </row>
@@ -2660,7 +2663,7 @@
         <v>4002</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" s="6">
         <v>10</v>
@@ -2672,7 +2675,7 @@
         <v>31</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H40" s="15" t="s">
         <v>28</v>
@@ -2687,7 +2690,7 @@
         <v>4003</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D41" s="6">
         <v>10</v>
@@ -2699,7 +2702,7 @@
         <v>31</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H41" s="15" t="s">
         <v>28</v>
@@ -2714,7 +2717,7 @@
         <v>4004</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D42" s="6">
         <v>10</v>
@@ -2726,13 +2729,13 @@
         <v>31</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H42" s="15" t="s">
         <v>28</v>
       </c>
       <c r="I42" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J42" s="26"/>
     </row>
@@ -2741,7 +2744,7 @@
         <v>10001</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D43" s="5">
         <v>10</v>
@@ -2750,13 +2753,13 @@
         <v>5</v>
       </c>
       <c r="F43" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="H43" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>29</v>
@@ -2769,7 +2772,7 @@
         <v>10002</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D44">
         <v>-1</v>
@@ -2778,13 +2781,13 @@
         <v>300</v>
       </c>
       <c r="F44" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G44" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I44" s="16" t="s">
         <v>29</v>
@@ -2797,7 +2800,7 @@
         <v>10003</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D45" s="5">
         <v>-1</v>
@@ -2806,13 +2809,13 @@
         <v>400</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>29</v>
@@ -2824,7 +2827,7 @@
         <v>10004</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D46" s="5">
         <v>-1</v>
@@ -2833,13 +2836,13 @@
         <v>400</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>29</v>
@@ -2852,7 +2855,7 @@
         <v>10005</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D47" s="4">
         <v>-1</v>
@@ -2861,13 +2864,13 @@
         <v>800</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>29</v>
@@ -2880,7 +2883,7 @@
         <v>20001</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D48" s="5">
         <v>-1</v>
@@ -2889,13 +2892,13 @@
         <v>400</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>29</v>
@@ -2907,7 +2910,7 @@
         <v>20002</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D49" s="5">
         <v>-1</v>
@@ -2916,13 +2919,13 @@
         <v>500</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>29</v>
@@ -2934,7 +2937,7 @@
         <v>10008</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D50">
         <v>-1</v>
@@ -2943,13 +2946,13 @@
         <v>600</v>
       </c>
       <c r="F50" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G50" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I50" s="16" t="s">
         <v>29</v>
@@ -2960,7 +2963,7 @@
         <v>10009</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D51">
         <v>-1</v>
@@ -2969,13 +2972,13 @@
         <v>600</v>
       </c>
       <c r="F51" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I51" s="16" t="s">
         <v>29</v>
@@ -2986,7 +2989,7 @@
         <v>10010</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D52">
         <v>-1</v>
@@ -2995,13 +2998,13 @@
         <v>600</v>
       </c>
       <c r="F52" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I52" s="16" t="s">
         <v>29</v>
@@ -3012,7 +3015,7 @@
         <v>10011</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D53">
         <v>-1</v>
@@ -3021,13 +3024,13 @@
         <v>600</v>
       </c>
       <c r="F53" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G53" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H53" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I53" s="16" t="s">
         <v>29</v>
@@ -3038,7 +3041,7 @@
         <v>10012</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D54">
         <v>-1</v>
@@ -3047,13 +3050,13 @@
         <v>600</v>
       </c>
       <c r="F54" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I54" s="16" t="s">
         <v>29</v>
@@ -3064,7 +3067,7 @@
         <v>10013</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D55">
         <v>-1</v>
@@ -3073,13 +3076,13 @@
         <v>600</v>
       </c>
       <c r="F55" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I55" s="16" t="s">
         <v>29</v>
@@ -3090,7 +3093,7 @@
         <v>10014</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D56">
         <v>-1</v>
@@ -3099,13 +3102,13 @@
         <v>600</v>
       </c>
       <c r="F56" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I56" s="16" t="s">
         <v>29</v>
@@ -3116,7 +3119,7 @@
         <v>10015</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D57">
         <v>-1</v>
@@ -3125,13 +3128,13 @@
         <v>600</v>
       </c>
       <c r="F57" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I57" s="16" t="s">
         <v>29</v>
@@ -3142,7 +3145,7 @@
         <v>10016</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D58">
         <v>-1</v>
@@ -3151,13 +3154,13 @@
         <v>600</v>
       </c>
       <c r="F58" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I58" s="16" t="s">
         <v>29</v>
@@ -3168,7 +3171,7 @@
         <v>10017</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D59">
         <v>-1</v>
@@ -3177,13 +3180,13 @@
         <v>600</v>
       </c>
       <c r="F59" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G59" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H59" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I59" s="16" t="s">
         <v>29</v>
@@ -3194,7 +3197,7 @@
         <v>10018</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D60">
         <v>-1</v>
@@ -3203,13 +3206,13 @@
         <v>600</v>
       </c>
       <c r="F60" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G60" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H60" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I60" s="16" t="s">
         <v>29</v>
@@ -3220,7 +3223,7 @@
         <v>10019</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D61">
         <v>-1</v>
@@ -3229,13 +3232,13 @@
         <v>600</v>
       </c>
       <c r="F61" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G61" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H61" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I61" s="16" t="s">
         <v>29</v>
@@ -3246,7 +3249,7 @@
         <v>10020</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D62">
         <v>-1</v>
@@ -3255,13 +3258,13 @@
         <v>600</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G62" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H62" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I62" s="16" t="s">
         <v>29</v>
@@ -3272,7 +3275,7 @@
         <v>10021</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D63">
         <v>-1</v>
@@ -3281,13 +3284,13 @@
         <v>600</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G63" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H63" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I63" s="16" t="s">
         <v>29</v>
@@ -3298,7 +3301,7 @@
         <v>10022</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D64">
         <v>-1</v>
@@ -3307,13 +3310,13 @@
         <v>600</v>
       </c>
       <c r="F64" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G64" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H64" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I64" s="16" t="s">
         <v>29</v>
@@ -3324,7 +3327,7 @@
         <v>10023</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D65">
         <v>-1</v>
@@ -3333,13 +3336,13 @@
         <v>600</v>
       </c>
       <c r="F65" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G65" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H65" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I65" s="16" t="s">
         <v>29</v>
@@ -3350,7 +3353,7 @@
         <v>10024</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D66">
         <v>-1</v>
@@ -3359,13 +3362,13 @@
         <v>600</v>
       </c>
       <c r="F66" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G66" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I66" s="16" t="s">
         <v>29</v>
@@ -3376,7 +3379,7 @@
         <v>10025</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D67">
         <v>-1</v>
@@ -3385,13 +3388,13 @@
         <v>600</v>
       </c>
       <c r="F67" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I67" s="16" t="s">
         <v>29</v>
@@ -3402,7 +3405,7 @@
         <v>30001</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D68" s="5">
         <v>-1</v>
@@ -3411,13 +3414,13 @@
         <v>600</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G68" s="30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I68" s="4" t="s">
         <v>29</v>
@@ -3429,7 +3432,7 @@
         <v>30002</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D69" s="5">
         <v>-1</v>
@@ -3438,13 +3441,13 @@
         <v>600</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>29</v>
@@ -3456,7 +3459,7 @@
         <v>30003</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D70" s="5">
         <v>-1</v>
@@ -3465,13 +3468,13 @@
         <v>600</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I70" s="4" t="s">
         <v>29</v>
@@ -3484,7 +3487,7 @@
         <v>30004</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D71">
         <v>-1</v>
@@ -3493,13 +3496,13 @@
         <v>200</v>
       </c>
       <c r="F71" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G71" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H71" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I71" s="16" t="s">
         <v>29</v>

--- a/DataConfig/Datas/items.xlsx
+++ b/DataConfig/Datas/items.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20205" windowHeight="17055"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -433,88 +446,88 @@
     <t>烤羊肉串</t>
   </si>
   <si>
+    <t>烤土豆</t>
+  </si>
+  <si>
+    <t>红烧肉</t>
+  </si>
+  <si>
+    <t>一道传统的菜品，普通却也美味</t>
+  </si>
+  <si>
+    <t>酸菜鱼</t>
+  </si>
+  <si>
+    <t>辣白菜</t>
+  </si>
+  <si>
+    <t>红烧茄子</t>
+  </si>
+  <si>
+    <t>西红柿炒鸡蛋</t>
+  </si>
+  <si>
+    <t>炒青菜</t>
+  </si>
+  <si>
+    <t>宫保鸡丁</t>
+  </si>
+  <si>
+    <t>土豆炖牛肉</t>
+  </si>
+  <si>
+    <t>小鸡炖蘑菇</t>
+  </si>
+  <si>
+    <t>烤章鱼</t>
+  </si>
+  <si>
+    <t>烤蘑菇</t>
+  </si>
+  <si>
+    <t>猪肉蒸饺</t>
+  </si>
+  <si>
+    <t>南瓜米糕</t>
+  </si>
+  <si>
+    <t>烧麦</t>
+  </si>
+  <si>
+    <t>蒸茄子</t>
+  </si>
+  <si>
+    <t>蒸扇贝</t>
+  </si>
+  <si>
+    <t>蒸素包子</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Picture/Food/30001.png</t>
+  </si>
+  <si>
+    <t>蒸汤圆</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Picture/Food/30002.png</t>
+  </si>
+  <si>
+    <t>蒸饺</t>
+  </si>
+  <si>
+    <t>Assets/GameRes/Picture/Food/30003.png</t>
+  </si>
+  <si>
+    <t>蒸蛋</t>
+  </si>
+  <si>
     <t>Assets/GameRes/Picture/Food/grey.png</t>
-  </si>
-  <si>
-    <t>烤土豆</t>
-  </si>
-  <si>
-    <t>红烧肉</t>
-  </si>
-  <si>
-    <t>一道传统的菜品，普通却也美味</t>
-  </si>
-  <si>
-    <t>酸菜鱼</t>
-  </si>
-  <si>
-    <t>辣白菜</t>
-  </si>
-  <si>
-    <t>红烧茄子</t>
-  </si>
-  <si>
-    <t>西红柿炒鸡蛋</t>
-  </si>
-  <si>
-    <t>炒青菜</t>
-  </si>
-  <si>
-    <t>宫保鸡丁</t>
-  </si>
-  <si>
-    <t>土豆炖牛肉</t>
-  </si>
-  <si>
-    <t>小鸡炖蘑菇</t>
-  </si>
-  <si>
-    <t>烤章鱼</t>
-  </si>
-  <si>
-    <t>烤蘑菇</t>
-  </si>
-  <si>
-    <t>猪肉蒸饺</t>
-  </si>
-  <si>
-    <t>南瓜米糕</t>
-  </si>
-  <si>
-    <t>烧麦</t>
-  </si>
-  <si>
-    <t>蒸茄子</t>
-  </si>
-  <si>
-    <t>蒸扇贝</t>
-  </si>
-  <si>
-    <t>蒸素包子</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/Picture/Food/30001.png</t>
-  </si>
-  <si>
-    <t>蒸汤圆</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/Picture/Food/30002.png</t>
-  </si>
-  <si>
-    <t>蒸饺</t>
-  </si>
-  <si>
-    <t>Assets/GameRes/Picture/Food/30003.png</t>
-  </si>
-  <si>
-    <t>蒸蛋</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1549,8 +1562,8 @@
   <sheetPr/>
   <dimension ref="A1:P71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1559,7 +1572,7 @@
     <col min="4" max="4" width="7.625" customWidth="1"/>
     <col min="5" max="5" width="9.375" customWidth="1"/>
     <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="7" width="17.6" customWidth="1"/>
+    <col min="7" max="7" width="21.5166666666667" customWidth="1"/>
     <col min="8" max="8" width="36.7416666666667" customWidth="1"/>
     <col min="9" max="9" width="57.925" style="7" customWidth="1"/>
     <col min="10" max="10" width="26.875" style="7" customWidth="1"/>
@@ -2925,7 +2938,7 @@
         <v>128</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>29</v>
@@ -2937,7 +2950,7 @@
         <v>10008</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D50">
         <v>-1</v>
@@ -2963,7 +2976,7 @@
         <v>10009</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D51">
         <v>-1</v>
@@ -2975,7 +2988,7 @@
         <v>125</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H51" s="16" t="s">
         <v>135</v>
@@ -2989,7 +3002,7 @@
         <v>10010</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D52">
         <v>-1</v>
@@ -3001,7 +3014,7 @@
         <v>125</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H52" s="16" t="s">
         <v>135</v>
@@ -3015,7 +3028,7 @@
         <v>10011</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D53">
         <v>-1</v>
@@ -3027,7 +3040,7 @@
         <v>125</v>
       </c>
       <c r="G53" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H53" s="16" t="s">
         <v>135</v>
@@ -3053,7 +3066,7 @@
         <v>125</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H54" s="16" t="s">
         <v>135</v>
@@ -3067,7 +3080,7 @@
         <v>10013</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D55">
         <v>-1</v>
@@ -3079,7 +3092,7 @@
         <v>125</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H55" s="16" t="s">
         <v>135</v>
@@ -3093,7 +3106,7 @@
         <v>10014</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D56">
         <v>-1</v>
@@ -3105,7 +3118,7 @@
         <v>125</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H56" s="16" t="s">
         <v>135</v>
@@ -3119,7 +3132,7 @@
         <v>10015</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D57">
         <v>-1</v>
@@ -3131,7 +3144,7 @@
         <v>125</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H57" s="16" t="s">
         <v>135</v>
@@ -3145,7 +3158,7 @@
         <v>10016</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D58">
         <v>-1</v>
@@ -3157,7 +3170,7 @@
         <v>125</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H58" s="16" t="s">
         <v>135</v>
@@ -3171,7 +3184,7 @@
         <v>10017</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D59">
         <v>-1</v>
@@ -3183,7 +3196,7 @@
         <v>125</v>
       </c>
       <c r="G59" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H59" s="16" t="s">
         <v>135</v>
@@ -3197,7 +3210,7 @@
         <v>10018</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D60">
         <v>-1</v>
@@ -3209,7 +3222,7 @@
         <v>125</v>
       </c>
       <c r="G60" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H60" s="16" t="s">
         <v>135</v>
@@ -3223,7 +3236,7 @@
         <v>10019</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D61">
         <v>-1</v>
@@ -3235,7 +3248,7 @@
         <v>125</v>
       </c>
       <c r="G61" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H61" s="16" t="s">
         <v>135</v>
@@ -3249,7 +3262,7 @@
         <v>10020</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D62">
         <v>-1</v>
@@ -3261,7 +3274,7 @@
         <v>125</v>
       </c>
       <c r="G62" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H62" s="16" t="s">
         <v>135</v>
@@ -3275,7 +3288,7 @@
         <v>10021</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D63">
         <v>-1</v>
@@ -3287,7 +3300,7 @@
         <v>125</v>
       </c>
       <c r="G63" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H63" s="16" t="s">
         <v>135</v>
@@ -3301,7 +3314,7 @@
         <v>10022</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D64">
         <v>-1</v>
@@ -3313,7 +3326,7 @@
         <v>125</v>
       </c>
       <c r="G64" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H64" s="16" t="s">
         <v>135</v>
@@ -3327,7 +3340,7 @@
         <v>10023</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D65">
         <v>-1</v>
@@ -3339,7 +3352,7 @@
         <v>125</v>
       </c>
       <c r="G65" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H65" s="16" t="s">
         <v>135</v>
@@ -3353,7 +3366,7 @@
         <v>10024</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D66">
         <v>-1</v>
@@ -3365,7 +3378,7 @@
         <v>125</v>
       </c>
       <c r="G66" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H66" s="16" t="s">
         <v>135</v>
@@ -3379,7 +3392,7 @@
         <v>10025</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D67">
         <v>-1</v>
@@ -3391,7 +3404,7 @@
         <v>125</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H67" s="16" t="s">
         <v>135</v>
@@ -3405,7 +3418,7 @@
         <v>30001</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D68" s="5">
         <v>-1</v>
@@ -3417,10 +3430,10 @@
         <v>125</v>
       </c>
       <c r="G68" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I68" s="4" t="s">
         <v>29</v>
@@ -3432,7 +3445,7 @@
         <v>30002</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D69" s="5">
         <v>-1</v>
@@ -3444,10 +3457,10 @@
         <v>125</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>29</v>
@@ -3459,7 +3472,7 @@
         <v>30003</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D70" s="5">
         <v>-1</v>
@@ -3471,10 +3484,10 @@
         <v>125</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I70" s="4" t="s">
         <v>29</v>
@@ -3487,7 +3500,7 @@
         <v>30004</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D71">
         <v>-1</v>
@@ -3502,7 +3515,7 @@
         <v>128</v>
       </c>
       <c r="H71" s="16" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="I71" s="16" t="s">
         <v>29</v>

--- a/DataConfig/Datas/items.xlsx
+++ b/DataConfig/Datas/items.xlsx
@@ -1562,8 +1562,8 @@
   <sheetPr/>
   <dimension ref="A1:P71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
